--- a/Personal Finance Calculator.xlsx
+++ b/Personal Finance Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackk\Google Drive\Github\Personal-Finance-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2D3B82-8A32-4D6E-A420-D2A5EFBDB72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA37D9A-3701-4945-A8CE-1FB662C07762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF72712F-D3A7-4ACE-883C-01AD32B12D2D}"/>
   </bookViews>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>financial advisor. I accept no liability for any loss or damage</t>
-  </si>
-  <si>
-    <t>The average S&amp;P500 return over the last 100 years is about 9.4%.</t>
-  </si>
-  <si>
-    <t>For conservative measures, this is set at a default 9.0%.</t>
   </si>
   <si>
     <t>The widely known 4% rule states that a retiree can spend from</t>
@@ -329,6 +323,12 @@
   <si>
     <t>You can freely change the figures in the blue cells.</t>
   </si>
+  <si>
+    <t>The average S&amp;P500 return over the last 100 years is about 7.0%</t>
+  </si>
+  <si>
+    <t>after being adjusted for inflation.</t>
+  </si>
 </sst>
 </file>
 
@@ -336,9 +336,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -485,20 +485,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2097,1444 +2097,1444 @@
                   <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203941.46466322735</c:v>
+                  <c:v>203630.82907748106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207911.33673662171</c:v>
+                  <c:v>207282.18739044302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211909.82096157272</c:v>
+                  <c:v>210954.19101416797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215937.12355510742</c:v>
+                  <c:v>214646.95668024453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>219993.45222052565</c:v>
+                  <c:v>218360.60178027872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>224079.01615811206</c:v>
+                  <c:v>222095.24436962573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>228194.02607592539</c:v>
+                  <c:v>225851.00317114289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>232338.69420066552</c:v>
+                  <c:v>229627.99757896387</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>236513.23428861873</c:v>
+                  <c:v>233426.34766229408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>240717.86163668201</c:v>
+                  <c:v>237246.17416922771</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>244952.79309346664</c:v>
+                  <c:v>241087.5985305862</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>249218.247070482</c:v>
+                  <c:v>244950.74286377852</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>253514.44355339982</c:v>
+                  <c:v>248835.72997668324</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>257841.60411339966</c:v>
+                  <c:v>252742.68337155253</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>262199.95191859629</c:v>
+                  <c:v>256671.72724893823</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>266589.71174554911</c:v>
+                  <c:v>260622.98651164016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>271011.10999085498</c:v>
+                  <c:v>264596.58676867676</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>275464.37468282419</c:v>
+                  <c:v>268592.65433927806</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>279949.7354932407</c:v>
+                  <c:v>272611.31625690142</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>284467.42374920746</c:v>
+                  <c:v>276652.70027326985</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>289017.67244507646</c:v>
+                  <c:v>280716.93486243318</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>293600.7162544654</c:v>
+                  <c:v>284804.14922485215</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>298216.79154236068</c:v>
+                  <c:v>288914.47329150571</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>302866.13637730741</c:v>
+                  <c:v>293048.0377280215</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>307548.99054368783</c:v>
+                  <c:v>297204.97393882956</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>312265.59555408766</c:v>
+                  <c:v>301385.41407133971</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>317016.19466175197</c:v>
+                  <c:v>305589.49102014239</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>321801.03287313058</c:v>
+                  <c:v>309817.33843123348</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>326620.35696051398</c:v>
+                  <c:v>314069.09070626262</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>331474.4154747604</c:v>
+                  <c:v>318344.88300680602</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>336363.45875811443</c:v>
+                  <c:v>322644.85125866299</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>341287.73895711818</c:v>
+                  <c:v>326969.13215617725</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>346247.51003561541</c:v>
+                  <c:v>331317.86316658201</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>351243.02778784937</c:v>
+                  <c:v>335691.18253437034</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>356274.5498516552</c:v>
+                  <c:v>340089.22928568965</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>361342.33572174713</c:v>
+                  <c:v>344512.14323276153</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>366446.6467631018</c:v>
+                  <c:v>348960.06497832615</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>371587.74622443761</c:v>
+                  <c:v>353433.13592011202</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>376765.89925179171</c:v>
+                  <c:v>357931.49825533089</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>381981.37290219439</c:v>
+                  <c:v>362455.29498519836</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>387234.43615744228</c:v>
+                  <c:v>367004.66991947952</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>392525.35993797088</c:v>
+                  <c:v>371579.76768106094</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>397854.41711682675</c:v>
+                  <c:v>376180.73371054791</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>403221.88253374083</c:v>
+                  <c:v>380807.71427088813</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>408628.0330093028</c:v>
+                  <c:v>385460.85645202122</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>414073.14735923783</c:v>
+                  <c:v>390140.30817555473</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>419557.50640878617</c:v>
+                  <c:v>394846.21819946641</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>425081.39300718642</c:v>
+                  <c:v>399578.73612283333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>430645.09204226296</c:v>
+                  <c:v>404338.01239058748</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>436248.89045511902</c:v>
+                  <c:v>409124.19829829835</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>441893.07725493499</c:v>
+                  <c:v>413937.44599698257</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>447577.94353387388</c:v>
+                  <c:v>418777.90849794075</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>453303.78248209407</c:v>
+                  <c:v>423645.73967762163</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>459070.88940287026</c:v>
+                  <c:v>428541.09428251378</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>464879.56172782317</c:v>
+                  <c:v>433464.12793406483</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>470730.09903225955</c:v>
+                  <c:v>438414.99713362887</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>476622.80305062211</c:v>
+                  <c:v>443393.85926744126</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>482557.97769205132</c:v>
+                  <c:v>448400.87261162209</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>488535.92905605905</c:v>
+                  <c:v>453436.19633720757</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>494556.96544831531</c:v>
+                  <c:v>458499.9905152102</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>500621.39739654877</c:v>
+                  <c:v>463592.41612170712</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>506729.53766656184</c:v>
+                  <c:v>468713.63504295773</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>512881.7012783612</c:v>
+                  <c:v>473863.81008054985</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>519078.20552240458</c:v>
+                  <c:v>479043.10495657509</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>525319.36997596454</c:v>
+                  <c:v>484251.68431883364</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>531605.51651961054</c:v>
+                  <c:v>489489.71374606818</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>537936.96935380925</c:v>
+                  <c:v>494757.35975322785</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>544314.05501564487</c:v>
+                  <c:v>500054.78979676135</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>550737.10239566001</c:v>
+                  <c:v>505382.17227994063</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>557206.44275481778</c:v>
+                  <c:v>510739.67655821412</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>563722.40974158619</c:v>
+                  <c:v>516127.47294459061</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>570285.33940914553</c:v>
+                  <c:v>521545.73271505343</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>576895.57023272</c:v>
+                  <c:v>526994.6281140052</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>583553.44312703423</c:v>
+                  <c:v>532474.3323597433</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>590259.30146389559</c:v>
+                  <c:v>537985.01964996685</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>597013.49108990293</c:v>
+                  <c:v>543526.86516731384</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>603816.3603442834</c:v>
+                  <c:v>549100.04508493049</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>610668.26007685752</c:v>
+                  <c:v>554704.73657207144</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>617569.54366613412</c:v>
+                  <c:v>560341.11779973225</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>624520.56703753502</c:v>
+                  <c:v>566009.36794631311</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>631521.68868175161</c:v>
+                  <c:v>571709.66720331495</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>638573.26967323362</c:v>
+                  <c:v>577442.19678106753</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>645675.67368881113</c:v>
+                  <c:v>583207.13891449035</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>652829.26702645083</c:v>
+                  <c:v>589004.67686888552</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>660034.41862414696</c:v>
+                  <c:v>594834.99494576384</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>667291.5000789495</c:v>
+                  <c:v>600698.27848870365</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>674600.88566612836</c:v>
+                  <c:v>606594.71388924285</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>681962.95235847635</c:v>
+                  <c:v>612524.48859280418</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>689378.07984575105</c:v>
+                  <c:v>618487.79110465397</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>696846.65055425686</c:v>
+                  <c:v>624484.81099589483</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>704369.04966656829</c:v>
+                  <c:v>630515.73890949192</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>711945.66514139518</c:v>
+                  <c:v>636580.76656633348</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>719576.88773359125</c:v>
+                  <c:v>642680.08677132544</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>727263.11101430666</c:v>
+                  <c:v>648813.8934195207</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>735004.73139128624</c:v>
+                  <c:v>654982.38150228315</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>742802.14812931349</c:v>
+                  <c:v>661185.74711348605</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>750655.76337080228</c:v>
+                  <c:v>667424.18745574588</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>758565.98215653701</c:v>
+                  <c:v>673697.90084669145</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>766533.21244656201</c:v>
+                  <c:v>680007.0867252684</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>774557.86514122132</c:v>
+                  <c:v>686351.945658079</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>782640.35410235077</c:v>
+                  <c:v>692732.67934575828</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>790781.09617462219</c:v>
+                  <c:v>699149.49062938604</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>798980.51120704168</c:v>
+                  <c:v>705602.58349693497</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>807239.02207460301</c:v>
+                  <c:v>712092.16308975546</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>815557.05470009672</c:v>
+                  <c:v>718618.43570909684</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>823935.03807607654</c:v>
+                  <c:v>725181.60882266588</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>832373.40428698424</c:v>
+                  <c:v>731781.89107122167</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>840872.58853143395</c:v>
+                  <c:v>738419.4922752087</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>849433.02914465684</c:v>
+                  <c:v>745094.62344142667</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>858055.16762110777</c:v>
+                  <c:v>751807.4967697385</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>866739.44863723498</c:v>
+                  <c:v>758558.3256598158</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>875486.32007441355</c:v>
+                  <c:v>765347.32471792307</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>884296.23304204457</c:v>
+                  <c:v>772174.70976373984</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>893169.64190082031</c:v>
+                  <c:v>779040.69783722155</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>902107.00428615755</c:v>
+                  <c:v>785945.50720549887</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>911108.78113179945</c:v>
+                  <c:v>792889.35736981675</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>920175.43669358757</c:v>
+                  <c:v>799872.469072512</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>929307.4385734055</c:v>
+                  <c:v>806895.06430403085</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>938505.25774329493</c:v>
+                  <c:v>813957.36630998552</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>947769.3685697451</c:v>
+                  <c:v>821059.59959825163</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>957100.24883815798</c:v>
+                  <c:v>828201.98994610494</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>966498.37977748946</c:v>
+                  <c:v>835384.76440739853</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>975964.24608506809</c:v>
+                  <c:v>842608.15131978132</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>985498.33595159277</c:v>
+                  <c:v>849872.38031195616</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>995101.14108631061</c:v>
+                  <c:v>857177.68231098016</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1004773.1567423763</c:v>
+                  <c:v>864524.28954960557</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1014514.8817423939</c:v>
+                  <c:v>871912.43557366228</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1024326.8185041436</c:v>
+                  <c:v>879342.35524948244</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1034209.4730664927</c:v>
+                  <c:v>886814.28477136639</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1044163.3551154943</c:v>
+                  <c:v>894328.46166909148</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1054188.9780106738</c:v>
+                  <c:v>901885.12481546309</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1064286.8588115044</c:v>
+                  <c:v>909484.51443390781</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1074457.5183040744</c:v>
+                  <c:v>917126.87210611079</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1084701.4810279459</c:v>
+                  <c:v>924812.44077969494</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1095019.2753032066</c:v>
+                  <c:v>932541.46477594448</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1105411.4332577186</c:v>
+                  <c:v>940314.18979757151</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1115878.4908545611</c:v>
+                  <c:v>948130.86293652712</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1126420.9879196726</c:v>
+                  <c:v>955991.73268185626</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1137039.4681696917</c:v>
+                  <c:v>963897.048927597</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1147734.4792399989</c:v>
+                  <c:v>971847.0629807245</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1158506.5727129593</c:v>
+                  <c:v>979842.02756914031</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1169356.3041463711</c:v>
+                  <c:v>987882.19684970623</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1180284.2331021167</c:v>
+                  <c:v>995967.82641632378</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1191290.9231750222</c:v>
+                  <c:v>1004099.1733080597</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1202376.9420219236</c:v>
+                  <c:v>1012276.4960173169</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1213542.8613909434</c:v>
+                  <c:v>1020500.054498052</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1224789.2571509776</c:v>
+                  <c:v>1028770.110174039</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1236116.7093213957</c:v>
+                  <c:v>1037086.92594718</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1247525.8021019541</c:v>
+                  <c:v>1045450.7662058626</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1259017.1239029258</c:v>
+                  <c:v>1053861.8968333649</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1270591.2673754466</c:v>
+                  <c:v>1062320.5852163073</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1282248.8294420813</c:v>
+                  <c:v>1070827.1002531538</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1293990.4113276082</c:v>
+                  <c:v>1079381.7123627588</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1305816.6185900269</c:v>
+                  <c:v>1087984.6934929644</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1317728.0611517895</c:v>
+                  <c:v>1096636.3171292453</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1329725.3533312564</c:v>
+                  <c:v>1105336.8583034028</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1341809.1138743788</c:v>
+                  <c:v>1114086.5936023081</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1353979.9659866104</c:v>
+                  <c:v>1122885.8011766947</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1366238.5373650477</c:v>
+                  <c:v>1131734.7607500008</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1378585.4602308033</c:v>
+                  <c:v>1140633.7536272616</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1391021.3713616119</c:v>
+                  <c:v>1149583.0627040518</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1403546.9121246708</c:v>
+                  <c:v>1158582.9724754791</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1416162.7285097186</c:v>
+                  <c:v>1167633.7690452277</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1428869.4711623504</c:v>
+                  <c:v>1176735.7401346534</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1441667.7954175747</c:v>
+                  <c:v>1185889.1750919307</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1454558.3613336112</c:v>
+                  <c:v>1195094.3649012505</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1467541.8337259325</c:v>
+                  <c:v>1204351.6021920708</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1480618.8822015515</c:v>
+                  <c:v>1213661.1812484192</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1493790.181193555</c:v>
+                  <c:v>1223023.3980182479</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1507056.4099958874</c:v>
+                  <c:v>1232438.5501228415</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1520418.2527983841</c:v>
+                  <c:v>1241906.936866279</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1533876.3987220577</c:v>
+                  <c:v>1251428.859244948</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1547431.5418546391</c:v>
+                  <c:v>1261004.6199571136</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1561084.3812863734</c:v>
+                  <c:v>1270634.5234125408</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1574835.6211460754</c:v>
+                  <c:v>1280318.8757421717</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1588685.9706374442</c:v>
+                  <c:v>1290057.9848078571</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1602636.1440756386</c:v>
+                  <c:v>1299852.1602121438</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1616686.8609241184</c:v>
+                  <c:v>1309701.713308116</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1630838.8458317488</c:v>
+                  <c:v>1319606.9572092937</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1645092.8286701734</c:v>
+                  <c:v>1329568.2067995865</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1659449.5445714572</c:v>
+                  <c:v>1339585.7787433031</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1673909.7339659994</c:v>
+                  <c:v>1349659.9914952184</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1688474.1426207209</c:v>
+                  <c:v>1359791.1653106965</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1703143.5216775252</c:v>
+                  <c:v>1369979.6222558725</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1717918.6276920389</c:v>
+                  <c:v>1380225.6862178897</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1732800.2226726294</c:v>
+                  <c:v>1390529.6829151968</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1747789.0741197048</c:v>
+                  <c:v>1400891.9399079019</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1762885.9550652967</c:v>
+                  <c:v>1411312.7866081854</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1778091.6441129288</c:v>
+                  <c:v>1421792.5542907722</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1793406.9254777718</c:v>
+                  <c:v>1432331.5761034626</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1808832.5890270888</c:v>
+                  <c:v>1442930.187077723</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1824369.4303209716</c:v>
+                  <c:v>1453588.7241393363</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1840018.250653371</c:v>
+                  <c:v>1464307.526119113</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1855779.8570934222</c:v>
+                  <c:v>1475086.9337636621</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1871655.0625270684</c:v>
+                  <c:v>1485927.2897462237</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1887644.6856989851</c:v>
+                  <c:v>1496828.9386775619</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1903749.5512548049</c:v>
+                  <c:v>1507792.2271169205</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1919970.4897836484</c:v>
+                  <c:v>1518817.5035830392</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1936308.3378609605</c:v>
+                  <c:v>1529905.1185652337</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1952763.9380916557</c:v>
+                  <c:v>1541055.4245345369</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1969338.1391535746</c:v>
+                  <c:v>1552268.7759549047</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1986031.7958412534</c:v>
+                  <c:v>1563545.5292944834</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2002845.7691100088</c:v>
+                  <c:v>1574886.0430369419</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2019780.9261203413</c:v>
+                  <c:v>1586290.6776928683</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2036838.1402826565</c:v>
+                  <c:v>1597759.7958112294</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2054018.2913023122</c:v>
+                  <c:v>1609293.7619908971</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2071322.2652249867</c:v>
+                  <c:v>1620892.942892238</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2088750.9544823759</c:v>
+                  <c:v>1632557.7072487699</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2106305.2579382197</c:v>
+                  <c:v>1644288.4258788836</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2123986.0809346591</c:v>
+                  <c:v>1656085.4716976306</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2141794.3353389292</c:v>
+                  <c:v>1667949.2197285786</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2159730.939590387</c:v>
+                  <c:v>1679880.0471157331</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2177796.8187478785</c:v>
+                  <c:v>1691878.3331355266</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2195992.9045374487</c:v>
+                  <c:v>1703944.4592088759</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2214320.1354003921</c:v>
+                  <c:v>1716078.8089133066</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2232779.4565416542</c:v>
+                  <c:v>1728281.7679951477</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2251371.819978578</c:v>
+                  <c:v>1740553.7243817942</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2270098.184590003</c:v>
+                  <c:v>1752895.0681940387</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2288959.516165718</c:v>
+                  <c:v>1765306.1917584734</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2307956.7874562722</c:v>
+                  <c:v>1777787.4896199626</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2327090.9782231417</c:v>
+                  <c:v>1790339.3585541842</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2346363.0752892606</c:v>
+                  <c:v>1802962.1975802435</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2365774.0725899152</c:v>
+                  <c:v>1815656.4079733579</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2385324.9712240044</c:v>
+                  <c:v>1828422.3932776134</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2405016.7795056705</c:v>
+                  <c:v>1841260.5593187925</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2424850.5130163017</c:v>
+                  <c:v>1854171.3142172762</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2444827.1946569099</c:v>
+                  <c:v>1867155.068401017</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2464947.8547008857</c:v>
+                  <c:v>1880212.234618587</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2485213.5308471327</c:v>
+                  <c:v>1893343.2279522987</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2505625.2682735855</c:v>
+                  <c:v>1906548.4658314001</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2526184.1196911149</c:v>
+                  <c:v>1919828.3680453454</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2546891.1453978191</c:v>
+                  <c:v>1933183.3567571389</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2567747.413333707</c:v>
+                  <c:v>1946613.8565167559</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2588753.9991357769</c:v>
+                  <c:v>1960120.2942746393</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2609911.9861934902</c:v>
+                  <c:v>1973703.0993952719</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2631222.4657046474</c:v>
+                  <c:v>1987362.7036708251</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2652686.5367316632</c:v>
+                  <c:v>2001099.5413348868</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2674305.3062582514</c:v>
+                  <c:v>2014914.0490762643</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2696079.8892465145</c:v>
+                  <c:v>2028806.666052867</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2718011.4086944484</c:v>
+                  <c:v>2042777.8339056668</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2740100.9956938573</c:v>
+                  <c:v>2056827.9967727384</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2762349.7894886909</c:v>
+                  <c:v>2070957.601303377</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2784758.9375337982</c:v>
+                  <c:v>2085167.0966722984</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2807329.5955541055</c:v>
+                  <c:v>2099456.9345939173</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2830062.9276042231</c:v>
+                  <c:v>2113827.5693367077</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2852960.1061284794</c:v>
+                  <c:v>2128279.4577376428</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2876022.3120213868</c:v>
+                  <c:v>2142813.0592167196</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2899250.7346885479</c:v>
+                  <c:v>2157428.8357915618</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2922646.5721079954</c:v>
+                  <c:v>2172127.2520921077</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2946211.0308919763</c:v>
+                  <c:v>2186908.7753753816</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2969945.3263491835</c:v>
+                  <c:v>2201773.8755403464</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2993850.682547431</c:v>
+                  <c:v>2216723.0251428424</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>3017928.332376787</c:v>
+                  <c:v>2231756.699410609</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>3042179.5176131558</c:v>
+                  <c:v>2246875.3762583924</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>3066605.4889823226</c:v>
+                  <c:v>2262079.5363031384</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>3091207.5062244576</c:v>
+                  <c:v>2277369.6628792705</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>3115986.8381590862</c:v>
+                  <c:v>2292746.2420540559</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>3140944.7627505255</c:v>
+                  <c:v>2308209.7626430565</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>3166082.5671737948</c:v>
+                  <c:v>2323760.7162256683</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>3191401.5478810007</c:v>
+                  <c:v>2339399.5971607491</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>3216903.0106681981</c:v>
+                  <c:v>2355126.9026023336</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>3242588.2707427372</c:v>
+                  <c:v>2370943.1325154365</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>3268458.6527910926</c:v>
+                  <c:v>2386848.7896919488</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>3294515.4910471826</c:v>
+                  <c:v>2402844.3797666193</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>3320760.1293611806</c:v>
+                  <c:v>2418930.4112331294</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>3347193.9212688226</c:v>
+                  <c:v>2435107.3954602578</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>3373818.2300612144</c:v>
+                  <c:v>2451375.8467081357</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>3400634.4288551416</c:v>
+                  <c:v>2467736.2821445973</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>3427643.9006638867</c:v>
+                  <c:v>2484189.2218616176</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>3454848.0384685555</c:v>
+                  <c:v>2500735.1888918485</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>3482248.245289919</c:v>
+                  <c:v>2517374.7092252434</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>3509845.934260773</c:v>
+                  <c:v>2534108.3118257802</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>3537642.5286988183</c:v>
+                  <c:v>2550936.5286482754</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>3565639.4621800659</c:v>
+                  <c:v>2567859.8946552956</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>3593838.1786127733</c:v>
+                  <c:v>2584878.9478341639</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>3622240.1323119113</c:v>
+                  <c:v>2601994.2292140615</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>3650846.7880741693</c:v>
+                  <c:v>2619206.2828832273</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>3679659.6212534993</c:v>
+                  <c:v>2636515.6560062543</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>3708680.1178372065</c:v>
+                  <c:v>2653922.898841484</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>3737909.7745225872</c:v>
+                  <c:v>2671428.5647584978</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>3767350.098794119</c:v>
+                  <c:v>2689033.2102557095</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>3797002.6090012076</c:v>
+                  <c:v>2706737.3949780562</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>3826868.8344364939</c:v>
+                  <c:v>2724541.6817347887</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>3856950.3154147249</c:v>
+                  <c:v>2742446.6365173627</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>3887248.6033521942</c:v>
+                  <c:v>2760452.8285174323</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>3917765.2608467545</c:v>
+                  <c:v>2778560.8301449441</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>3948501.8617584058</c:v>
+                  <c:v>2796771.217046333</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>3979459.9912904664</c:v>
+                  <c:v>2815084.5681228233</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>4010641.2460713275</c:v>
+                  <c:v>2833501.4655488306</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>4042047.2342367969</c:v>
+                  <c:v>2852022.4947904698</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>4073679.5755130379</c:v>
+                  <c:v>2870648.2446241654</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>4105539.9013001029</c:v>
+                  <c:v>2889379.3071553702</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>4137629.8547560726</c:v>
+                  <c:v>2908216.2778373868</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>4169951.0908817993</c:v>
+                  <c:v>2927159.7554902979</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>4202505.2766062617</c:v>
+                  <c:v>2946210.3423200017</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>4235294.0908725336</c:v>
+                  <c:v>2965368.6439373558</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>4268319.2247243756</c:v>
+                  <c:v>2984635.2693774304</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>4301582.3813934466</c:v>
+                  <c:v>3004010.8311188677</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>4335085.2763871467</c:v>
+                  <c:v>3023495.9451033538</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>4368829.6375770923</c:v>
+                  <c:v>3043091.2307551983</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>4402817.2052882304</c:v>
+                  <c:v>3062797.3110010261</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>4437049.7323885923</c:v>
+                  <c:v>3082614.8122895798</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>4471528.9843796948</c:v>
+                  <c:v>3102544.3646116341</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>4506256.7394875959</c:v>
+                  <c:v>3122586.6015200233</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>4541234.7887546029</c:v>
+                  <c:v>3142742.160149781</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>4576464.936131645</c:v>
+                  <c:v>3163011.6812383961</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>4611948.9985713083</c:v>
+                  <c:v>3183395.8091461794</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>4647688.8061215449</c:v>
+                  <c:v>3203895.1918767486</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>4683686.2020200519</c:v>
+                  <c:v>3224510.4810976284</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>4719943.0427893391</c:v>
+                  <c:v>3245242.3321609665</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>4756461.1983324718</c:v>
+                  <c:v>3266091.4041243666</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>4793242.5520295128</c:v>
+                  <c:v>3287058.3597718403</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>4830289.0008346541</c:v>
+                  <c:v>3308143.8656348763</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>4867602.4553740481</c:v>
+                  <c:v>3329348.5920136287</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>4905184.8400443494</c:v>
+                  <c:v>3350673.2129982268</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>4943038.0931119611</c:v>
+                  <c:v>3372118.406490203</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>4981164.1668129992</c:v>
+                  <c:v>3393684.8542240439</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>5019565.0274539748</c:v>
+                  <c:v>3415373.2417888618</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>5058242.6555132084</c:v>
+                  <c:v>3437184.2586501897</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>5097199.0457429662</c:v>
+                  <c:v>3459118.5981718986</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>5136436.2072723396</c:v>
+                  <c:v>3481176.95763824</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>5175956.1637108624</c:v>
+                  <c:v>3503360.0382760116</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>5215760.9532528771</c:v>
+                  <c:v>3525668.54527685</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>5255852.6287826523</c:v>
+                  <c:v>3548103.1878196471</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>5296233.2579802563</c:v>
+                  <c:v>3570664.6790930955</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>5336904.9234281965</c:v>
+                  <c:v>3593353.7363183605</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>5377869.7227188256</c:v>
+                  <c:v>3616171.0807718807</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>5419129.7685625227</c:v>
+                  <c:v>3639117.4378082952</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>5460687.1888966542</c:v>
+                  <c:v>3662193.5368835051</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>5502544.1269953176</c:v>
+                  <c:v>3685400.1115778605</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>5544702.7415798819</c:v>
+                  <c:v>3708737.8996194815</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>5587165.2069303179</c:v>
+                  <c:v>3732207.6429077103</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>5629933.712997335</c:v>
+                  <c:v>3755810.0875366954</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>5673010.4655153248</c:v>
+                  <c:v>3779545.9838191113</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>5716397.6861161208</c:v>
+                  <c:v>3803416.0863100081</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>5760097.6124435756</c:v>
+                  <c:v>3827421.1538308007</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>5804112.4982689638</c:v>
+                  <c:v>3851561.9494933905</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>5848444.6136072185</c:v>
+                  <c:v>3875839.2407244244</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>5893096.244834004</c:v>
+                  <c:v>3900253.7992896908</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>5938069.6948036337</c:v>
+                  <c:v>3924806.4013186544</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>5983367.2829678366</c:v>
+                  <c:v>3949497.827329129</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>6028991.3454953805</c:v>
+                  <c:v>3974328.8622520892</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>6074944.2353925556</c:v>
+                  <c:v>3999300.2954566237</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>6121228.3226245306</c:v>
+                  <c:v>4024412.9207750284</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>6167845.9942375785</c:v>
+                  <c:v>4049667.5365280425</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>6214799.6544821877</c:v>
+                  <c:v>4075064.9455502275</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>6262091.7249370553</c:v>
+                  <c:v>4100605.9552154872</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>6309724.6446339805</c:v>
+                  <c:v>4126291.3774627354</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>6357700.8701836532</c:v>
+                  <c:v>4152122.0288217063</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>6406022.875902351</c:v>
+                  <c:v>4178098.7304389123</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>6454693.153939547</c:v>
+                  <c:v>4204222.3081037477</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>6503714.2144064438</c:v>
+                  <c:v>4230493.5922747385</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>6553088.585505425</c:v>
+                  <c:v>4256913.4181059459</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>6602818.8136604475</c:v>
+                  <c:v>4283482.6254735133</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>6652907.4636483686</c:v>
+                  <c:v>4310202.059002365</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>6703357.1187312212</c:v>
+                  <c:v>4337072.5680930577</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>6754170.3807894439</c:v>
+                  <c:v>4364095.0069487831</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>6805349.8704560678</c:v>
+                  <c:v>4391270.2346025212</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>6856898.2272518743</c:v>
+                  <c:v>4418599.114944349</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>6908818.1097215228</c:v>
+                  <c:v>4446082.5167489043</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>6961112.1955706663</c:v>
+                  <c:v>4473721.3137030033</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>7013783.181804046</c:v>
+                  <c:v>4501516.3844334139</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>7066833.7848645896</c:v>
+                  <c:v>4529468.6125347875</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>7120266.7407735065</c:v>
+                  <c:v>4557578.8865977479</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>7174084.8052713964</c:v>
+                  <c:v>4585848.1002371404</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>7228290.753960371</c:v>
+                  <c:v>4614277.1521204375</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>7282887.3824472055</c:v>
+                  <c:v>4642866.9459963087</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>7337877.5064875148</c:v>
+                  <c:v>4671618.3907233505</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>7393263.9621309778</c:v>
+                  <c:v>4700532.4002989763</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>7449049.6058675973</c:v>
+                  <c:v>4729609.8938884754</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>7505237.3147750255</c:v>
+                  <c:v>4758851.7958542313</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>7561829.9866669429</c:v>
+                  <c:v>4788259.035785106</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>7618830.540242509</c:v>
+                  <c:v>4817832.5485259918</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>7676241.9152368931</c:v>
+                  <c:v>4847573.2742075315</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>7734067.072572886</c:v>
+                  <c:v>4877482.158276001</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>7792308.9945136057</c:v>
+                  <c:v>4907560.1515233684</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>7850970.6848163055</c:v>
+                  <c:v>4937808.210117518</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>7910055.1688872883</c:v>
+                  <c:v>4968227.2956326455</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>7969565.4939379375</c:v>
+                  <c:v>4998818.3750798274</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>8029504.7291418752</c:v>
+                  <c:v>5029582.4209377617</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>8089875.9657932492</c:v>
+                  <c:v>5060520.4111836813</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>8150682.3174661649</c:v>
+                  <c:v>5091633.3293244457</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>8211926.9201752618</c:v>
+                  <c:v>5122922.1644278048</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>8273612.9325374514</c:v>
+                  <c:v>5154387.9111538408</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>8335743.5359348189</c:v>
+                  <c:v>5186031.5697865887</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>8398321.934678698</c:v>
+                  <c:v>5217854.1462658355</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>8461351.3561749309</c:v>
+                  <c:v>5249856.6522190981</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>8524835.051090315</c:v>
+                  <c:v>5282040.104993782</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>8588776.2935202569</c:v>
+                  <c:v>5314405.5276895221</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>8653178.3811576273</c:v>
+                  <c:v>5346953.9491907088</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>8718044.6354628354</c:v>
+                  <c:v>5379686.4041991942</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>8783378.4018351268</c:v>
+                  <c:v>5412603.9332671836</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>8849183.0497851241</c:v>
+                  <c:v>5445707.5828303182</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>8915461.9731086027</c:v>
+                  <c:v>5478998.4052409362</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>8982218.5900615193</c:v>
+                  <c:v>5512477.4588015303</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>9049456.3435363062</c:v>
+                  <c:v>5546145.8077983884</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>9117178.7012394369</c:v>
+                  <c:v>5580004.5225354284</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>9185389.1558702644</c:v>
+                  <c:v>5614054.6793682231</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>9254091.2253011577</c:v>
+                  <c:v>5648297.3607382141</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>9323288.4527589269</c:v>
+                  <c:v>5682733.6552071255</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>9392984.4070075639</c:v>
+                  <c:v>5717364.6574915675</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>9463182.6825322974</c:v>
+                  <c:v>5752191.468497837</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>9533886.8997249734</c:v>
+                  <c:v>5787215.1953569157</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>9605100.7050707713</c:v>
+                  <c:v>5822436.9514596649</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>9676827.7713362686</c:v>
+                  <c:v>5857857.8564922186</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>9749071.7977588605</c:v>
+                  <c:v>5893479.0364715802</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>9821836.5102375392</c:v>
+                  <c:v>5929301.6237814156</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>9895125.6615250576</c:v>
+                  <c:v>5965326.757208054</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>9968943.0314214695</c:v>
+                  <c:v>6001555.5819766875</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>10043292.426969072</c:v>
+                  <c:v>6037989.2497877777</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>10118177.682648744</c:v>
+                  <c:v>6074628.9188536676</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>10193602.660577713</c:v>
+                  <c:v>6111475.7539354023</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>10269571.250708727</c:v>
+                  <c:v>6148530.9263797551</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>10346087.371030688</c:v>
+                  <c:v>6185795.6141564641</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>10423154.967770705</c:v>
+                  <c:v>6223271.0018956782</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>10500778.015597625</c:v>
+                  <c:v>6260958.2809256194</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>10578960.517827017</c:v>
+                  <c:v>6298858.6493104519</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>10657706.506627642</c:v>
+                  <c:v>6336973.3118883688</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>10737020.043229401</c:v>
+                  <c:v>6375303.4803098924</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>10816905.218132796</c:v>
+                  <c:v>6413850.3730763951</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>10897366.151319886</c:v>
+                  <c:v>6452615.2155788327</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>10978406.992466772</c:v>
+                  <c:v>6491599.2401366988</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>11060031.921157615</c:v>
+                  <c:v>6530803.6860372014</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>11142245.147100192</c:v>
+                  <c:v>6570229.7995746583</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>11225050.910342999</c:v>
+                  <c:v>6609878.8340901164</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>11308453.481493935</c:v>
+                  <c:v>6649752.0500111952</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>11392457.161940554</c:v>
+                  <c:v>6689850.7148921546</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>11477066.284071896</c:v>
+                  <c:v>6730176.1034541922</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>11562285.211501934</c:v>
+                  <c:v>6770729.4976259628</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>11648118.339294614</c:v>
+                  <c:v>6811512.1865843339</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>11734570.094190532</c:v>
+                  <c:v>6852525.4667953644</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>11821644.934835233</c:v>
+                  <c:v>6893770.6420555227</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>11909347.35200916</c:v>
+                  <c:v>6935249.023533131</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>11997681.868859267</c:v>
+                  <c:v>6976961.9298100481</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>12086653.041132286</c:v>
+                  <c:v>7018910.6869235858</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>12176265.457409693</c:v>
+                  <c:v>7061096.6284086648</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>12266523.739344351</c:v>
+                  <c:v>7103521.0953402044</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>12357432.541898873</c:v>
+                  <c:v>7146185.4363757586</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>12448996.553585688</c:v>
+                  <c:v>7189091.0077983858</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>12541220.496708851</c:v>
+                  <c:v>7232239.1735597653</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>12634109.127607593</c:v>
+                  <c:v>7275631.3053235598</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>12727667.236901615</c:v>
+                  <c:v>7319268.7825090168</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>12821899.649738165</c:v>
+                  <c:v>7363152.9923348194</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>12916811.226040889</c:v>
+                  <c:v>7407285.3298631888</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>13012406.860760469</c:v>
+                  <c:v>7451667.1980442293</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>13108691.484127086</c:v>
+                  <c:v>7496300.0077605303</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>13205670.061904678</c:v>
+                  <c:v>7541185.1778720161</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>13303347.595647052</c:v>
+                  <c:v>7586324.1352610504</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>13401729.122955831</c:v>
+                  <c:v>7631718.3148777978</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>13500819.717740258</c:v>
+                  <c:v>7677369.1597858407</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>13600624.490478886</c:v>
+                  <c:v>7723278.1212080512</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>13701148.588483134</c:v>
+                  <c:v>7769446.6585727278</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>13802397.196162762</c:v>
+                  <c:v>7815876.2395599885</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>13904375.535293246</c:v>
+                  <c:v>7862568.3401484275</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>14007088.865285086</c:v>
+                  <c:v>7909524.4446620364</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>14110542.483455054</c:v>
+                  <c:v>7956746.0458173919</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>14214741.725299397</c:v>
+                  <c:v>8004234.6447711056</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>14319691.96476901</c:v>
+                  <c:v>8051991.7511675479</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>14425398.614546584</c:v>
+                  <c:v>8100018.8831868377</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>14531867.126325771</c:v>
+                  <c:v>8148317.5675931042</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>14639102.991092339</c:v>
+                  <c:v>8196889.339783024</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>14747111.739407366</c:v>
+                  <c:v>8245735.7438346297</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>14855898.94169247</c:v>
+                  <c:v>8294858.3325563949</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>14965470.208517101</c:v>
+                  <c:v>8344258.6675365986</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>15075831.190887894</c:v>
+                  <c:v>8393938.3191929664</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>15186987.580540122</c:v>
+                  <c:v>8443898.8668225966</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>15298945.110231228</c:v>
+                  <c:v>8494141.8986521587</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>15411709.554036494</c:v>
+                  <c:v>8544669.0118883885</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>15525286.727646828</c:v>
+                  <c:v>8595481.8127688617</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>15639682.488668704</c:v>
+                  <c:v>8646581.9166130554</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>15754902.736926261</c:v>
+                  <c:v>8697970.9478736948</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>15870953.414765576</c:v>
+                  <c:v>8749650.5401884001</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>15987840.507361136</c:v>
+                  <c:v>8801622.3364316151</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>16105570.043024516</c:v>
+                  <c:v>8853887.9887668323</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>16224148.093515279</c:v>
+                  <c:v>8906449.1586991213</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>16343580.774354126</c:v>
+                  <c:v>8959307.5171279404</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>16463874.245138293</c:v>
+                  <c:v>9012464.7444002554</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>16585034.70985922</c:v>
+                  <c:v>9065922.5303639583</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>16707068.417222526</c:v>
+                  <c:v>9119682.5744215883</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>16829981.660970267</c:v>
+                  <c:v>9173746.5855843537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9516,7 +9516,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -10591,8 +10591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A807D65-805F-4B7B-A483-41C7DAB3B290}">
   <dimension ref="B1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -10627,7 +10627,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="15">
         <v>4200</v>
@@ -10635,7 +10635,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="15">
         <v>1800</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15">
         <v>100000</v>
@@ -10658,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -10675,7 +10675,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <f>(C5-C6)*12/C10</f>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <f>C8/C10</f>
@@ -10693,31 +10693,31 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13">
         <f>Sheet2!$G$2</f>
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13">
         <f>Sheet2!$G$3</f>
-        <v>247</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" s="8"/>
     </row>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="E22" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -10740,43 +10740,43 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
@@ -10789,32 +10789,32 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
@@ -10822,27 +10822,27 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
@@ -10850,37 +10850,37 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
@@ -10888,47 +10888,47 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
@@ -10941,12 +10941,12 @@
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
@@ -10959,27 +10959,27 @@
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
@@ -10987,32 +10987,32 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
@@ -11020,27 +11020,27 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
@@ -11108,20 +11108,20 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="11">
         <f>('FIRE Calculator'!C9+1)^(1/12)-1</f>
-        <v>7.2073233161367156E-3</v>
+        <v>5.6541453874052738E-3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -11145,11 +11145,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <f>VLOOKUP('FIRE Calculator'!C12,B2:E482,4,1)+1</f>
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B3" s="12">
         <f>B2*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>203941.46466322735</v>
+        <v>203630.82907748106</v>
       </c>
       <c r="C3">
         <f>C2</f>
@@ -11173,11 +11173,11 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <f>VLOOKUP('FIRE Calculator'!C13,B2:E482,4,1)+1</f>
-        <v>247</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B4" s="12">
         <f>B3*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>207911.33673662171</v>
+        <v>207282.18739044302</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3</f>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B5" s="12">
         <f>B4*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>211909.82096157272</v>
+        <v>210954.19101416797</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B6" s="12">
         <f>B5*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>215937.12355510742</v>
+        <v>214646.95668024453</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="B7" s="12">
         <f>B6*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>219993.45222052565</v>
+        <v>218360.60178027872</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="B8" s="12">
         <f>B7*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>224079.01615811206</v>
+        <v>222095.24436962573</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="B9" s="12">
         <f>B8*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>228194.02607592539</v>
+        <v>225851.00317114289</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -11312,7 +11312,7 @@
       </c>
       <c r="B10" s="12">
         <f>B9*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>232338.69420066552</v>
+        <v>229627.99757896387</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="B11" s="12">
         <f>B10*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>236513.23428861873</v>
+        <v>233426.34766229408</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="B12" s="12">
         <f>B11*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>240717.86163668201</v>
+        <v>237246.17416922771</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B13" s="12">
         <f>B12*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>244952.79309346664</v>
+        <v>241087.5985305862</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B14" s="12">
         <f>B13*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>249218.247070482</v>
+        <v>244950.74286377852</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="B15" s="12">
         <f>B14*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>253514.44355339982</v>
+        <v>248835.72997668324</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="B16" s="12">
         <f>B15*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>257841.60411339966</v>
+        <v>252742.68337155253</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="B17" s="12">
         <f>B16*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>262199.95191859629</v>
+        <v>256671.72724893823</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="B18" s="12">
         <f>B17*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>266589.71174554911</v>
+        <v>260622.98651164016</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="B19" s="12">
         <f>B18*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>271011.10999085498</v>
+        <v>264596.58676867676</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="B20" s="12">
         <f>B19*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>275464.37468282419</v>
+        <v>268592.65433927806</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B21" s="12">
         <f>B20*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>279949.7354932407</v>
+        <v>272611.31625690142</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="B22" s="12">
         <f>B21*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>284467.42374920746</v>
+        <v>276652.70027326985</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="B23" s="12">
         <f>B22*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>289017.67244507646</v>
+        <v>280716.93486243318</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="B24" s="12">
         <f>B23*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>293600.7162544654</v>
+        <v>284804.14922485215</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="B25" s="12">
         <f>B24*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>298216.79154236068</v>
+        <v>288914.47329150571</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B26" s="12">
         <f>B25*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>302866.13637730741</v>
+        <v>293048.0377280215</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="B27" s="12">
         <f>B26*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>307548.99054368783</v>
+        <v>297204.97393882956</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="B28" s="12">
         <f>B27*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>312265.59555408766</v>
+        <v>301385.41407133971</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B29" s="12">
         <f>B28*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>317016.19466175197</v>
+        <v>305589.49102014239</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="B30" s="12">
         <f>B29*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>321801.03287313058</v>
+        <v>309817.33843123348</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B31" s="12">
         <f>B30*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>326620.35696051398</v>
+        <v>314069.09070626262</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -11774,7 +11774,7 @@
       </c>
       <c r="B32" s="12">
         <f>B31*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>331474.4154747604</v>
+        <v>318344.88300680602</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="B33" s="12">
         <f>B32*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>336363.45875811443</v>
+        <v>322644.85125866299</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B34" s="12">
         <f>B33*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>341287.73895711818</v>
+        <v>326969.13215617725</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="B35" s="12">
         <f>B34*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>346247.51003561541</v>
+        <v>331317.86316658201</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="B36" s="12">
         <f>B35*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>351243.02778784937</v>
+        <v>335691.18253437034</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="B37" s="12">
         <f>B36*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>356274.5498516552</v>
+        <v>340089.22928568965</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B38" s="12">
         <f>B37*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>361342.33572174713</v>
+        <v>344512.14323276153</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="B39" s="12">
         <f>B38*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>366446.6467631018</v>
+        <v>348960.06497832615</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B40" s="12">
         <f>B39*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>371587.74622443761</v>
+        <v>353433.13592011202</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="B41" s="12">
         <f>B40*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>376765.89925179171</v>
+        <v>357931.49825533089</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -11984,7 +11984,7 @@
       </c>
       <c r="B42" s="12">
         <f>B41*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>381981.37290219439</v>
+        <v>362455.29498519836</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B43" s="12">
         <f>B42*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>387234.43615744228</v>
+        <v>367004.66991947952</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B44" s="12">
         <f>B43*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>392525.35993797088</v>
+        <v>371579.76768106094</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="B45" s="12">
         <f>B44*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>397854.41711682675</v>
+        <v>376180.73371054791</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="B46" s="12">
         <f>B45*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>403221.88253374083</v>
+        <v>380807.71427088813</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B47" s="12">
         <f>B46*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>408628.0330093028</v>
+        <v>385460.85645202122</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -12110,7 +12110,7 @@
       </c>
       <c r="B48" s="12">
         <f>B47*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>414073.14735923783</v>
+        <v>390140.30817555473</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="B49" s="12">
         <f>B48*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>419557.50640878617</v>
+        <v>394846.21819946641</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -12152,7 +12152,7 @@
       </c>
       <c r="B50" s="12">
         <f>B49*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>425081.39300718642</v>
+        <v>399578.73612283333</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="B51" s="12">
         <f>B50*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>430645.09204226296</v>
+        <v>404338.01239058748</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="B52" s="12">
         <f>B51*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>436248.89045511902</v>
+        <v>409124.19829829835</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="B53" s="12">
         <f>B52*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>441893.07725493499</v>
+        <v>413937.44599698257</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="B54" s="12">
         <f>B53*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>447577.94353387388</v>
+        <v>418777.90849794075</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B55" s="12">
         <f>B54*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>453303.78248209407</v>
+        <v>423645.73967762163</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B56" s="12">
         <f>B55*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>459070.88940287026</v>
+        <v>428541.09428251378</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B57" s="12">
         <f>B56*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>464879.56172782317</v>
+        <v>433464.12793406483</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B58" s="12">
         <f>B57*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>470730.09903225955</v>
+        <v>438414.99713362887</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B59" s="12">
         <f>B58*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>476622.80305062211</v>
+        <v>443393.85926744126</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B60" s="12">
         <f>B59*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>482557.97769205132</v>
+        <v>448400.87261162209</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B61" s="12">
         <f>B60*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>488535.92905605905</v>
+        <v>453436.19633720757</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="B62" s="12">
         <f>B61*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>494556.96544831531</v>
+        <v>458499.9905152102</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B63" s="12">
         <f>B62*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>500621.39739654877</v>
+        <v>463592.41612170712</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -12446,7 +12446,7 @@
       </c>
       <c r="B64" s="12">
         <f>B63*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>506729.53766656184</v>
+        <v>468713.63504295773</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -12467,7 +12467,7 @@
       </c>
       <c r="B65" s="12">
         <f>B64*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>512881.7012783612</v>
+        <v>473863.81008054985</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="B66" s="12">
         <f>B65*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>519078.20552240458</v>
+        <v>479043.10495657509</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -12509,7 +12509,7 @@
       </c>
       <c r="B67" s="12">
         <f>B66*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>525319.36997596454</v>
+        <v>484251.68431883364</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -12530,7 +12530,7 @@
       </c>
       <c r="B68" s="12">
         <f>B67*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>531605.51651961054</v>
+        <v>489489.71374606818</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C131" si="4">C67</f>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="B69" s="12">
         <f>B68*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>537936.96935380925</v>
+        <v>494757.35975322785</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
@@ -12572,7 +12572,7 @@
       </c>
       <c r="B70" s="12">
         <f>B69*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>544314.05501564487</v>
+        <v>500054.78979676135</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
@@ -12593,7 +12593,7 @@
       </c>
       <c r="B71" s="12">
         <f>B70*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>550737.10239566001</v>
+        <v>505382.17227994063</v>
       </c>
       <c r="C71">
         <f t="shared" si="4"/>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="B72" s="12">
         <f>B71*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>557206.44275481778</v>
+        <v>510739.67655821412</v>
       </c>
       <c r="C72">
         <f t="shared" si="4"/>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="B73" s="12">
         <f>B72*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>563722.40974158619</v>
+        <v>516127.47294459061</v>
       </c>
       <c r="C73">
         <f t="shared" si="4"/>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B74" s="12">
         <f>B73*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>570285.33940914553</v>
+        <v>521545.73271505343</v>
       </c>
       <c r="C74">
         <f t="shared" si="4"/>
@@ -12677,7 +12677,7 @@
       </c>
       <c r="B75" s="12">
         <f>B74*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>576895.57023272</v>
+        <v>526994.6281140052</v>
       </c>
       <c r="C75">
         <f t="shared" si="4"/>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="B76" s="12">
         <f>B75*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>583553.44312703423</v>
+        <v>532474.3323597433</v>
       </c>
       <c r="C76">
         <f t="shared" si="4"/>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="B77" s="12">
         <f>B76*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>590259.30146389559</v>
+        <v>537985.01964996685</v>
       </c>
       <c r="C77">
         <f t="shared" si="4"/>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="B78" s="12">
         <f>B77*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>597013.49108990293</v>
+        <v>543526.86516731384</v>
       </c>
       <c r="C78">
         <f t="shared" si="4"/>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="B79" s="12">
         <f>B78*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>603816.3603442834</v>
+        <v>549100.04508493049</v>
       </c>
       <c r="C79">
         <f t="shared" si="4"/>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="B80" s="12">
         <f>B79*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>610668.26007685752</v>
+        <v>554704.73657207144</v>
       </c>
       <c r="C80">
         <f t="shared" si="4"/>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B81" s="12">
         <f>B80*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>617569.54366613412</v>
+        <v>560341.11779973225</v>
       </c>
       <c r="C81">
         <f t="shared" si="4"/>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="B82" s="12">
         <f>B81*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>624520.56703753502</v>
+        <v>566009.36794631311</v>
       </c>
       <c r="C82">
         <f t="shared" si="4"/>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="B83" s="12">
         <f>B82*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>631521.68868175161</v>
+        <v>571709.66720331495</v>
       </c>
       <c r="C83">
         <f t="shared" si="4"/>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="B84" s="12">
         <f>B83*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>638573.26967323362</v>
+        <v>577442.19678106753</v>
       </c>
       <c r="C84">
         <f t="shared" si="4"/>
@@ -12887,7 +12887,7 @@
       </c>
       <c r="B85" s="12">
         <f>B84*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>645675.67368881113</v>
+        <v>583207.13891449035</v>
       </c>
       <c r="C85">
         <f t="shared" si="4"/>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="B86" s="12">
         <f>B85*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>652829.26702645083</v>
+        <v>589004.67686888552</v>
       </c>
       <c r="C86">
         <f t="shared" si="4"/>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="B87" s="12">
         <f>B86*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>660034.41862414696</v>
+        <v>594834.99494576384</v>
       </c>
       <c r="C87">
         <f t="shared" si="4"/>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="B88" s="12">
         <f>B87*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>667291.5000789495</v>
+        <v>600698.27848870365</v>
       </c>
       <c r="C88">
         <f t="shared" si="4"/>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B89" s="12">
         <f>B88*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>674600.88566612836</v>
+        <v>606594.71388924285</v>
       </c>
       <c r="C89">
         <f t="shared" si="4"/>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B90" s="12">
         <f>B89*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>681962.95235847635</v>
+        <v>612524.48859280418</v>
       </c>
       <c r="C90">
         <f t="shared" si="4"/>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="B91" s="12">
         <f>B90*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>689378.07984575105</v>
+        <v>618487.79110465397</v>
       </c>
       <c r="C91">
         <f t="shared" si="4"/>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="B92" s="12">
         <f>B91*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>696846.65055425686</v>
+        <v>624484.81099589483</v>
       </c>
       <c r="C92">
         <f t="shared" si="4"/>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B93" s="12">
         <f>B92*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>704369.04966656829</v>
+        <v>630515.73890949192</v>
       </c>
       <c r="C93">
         <f t="shared" si="4"/>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="B94" s="12">
         <f>B93*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>711945.66514139518</v>
+        <v>636580.76656633348</v>
       </c>
       <c r="C94">
         <f t="shared" si="4"/>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="B95" s="12">
         <f>B94*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>719576.88773359125</v>
+        <v>642680.08677132544</v>
       </c>
       <c r="C95">
         <f t="shared" si="4"/>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="B96" s="12">
         <f>B95*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>727263.11101430666</v>
+        <v>648813.8934195207</v>
       </c>
       <c r="C96">
         <f t="shared" si="4"/>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B97" s="12">
         <f>B96*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>735004.73139128624</v>
+        <v>654982.38150228315</v>
       </c>
       <c r="C97">
         <f t="shared" si="4"/>
@@ -13160,7 +13160,7 @@
       </c>
       <c r="B98" s="12">
         <f>B97*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>742802.14812931349</v>
+        <v>661185.74711348605</v>
       </c>
       <c r="C98">
         <f t="shared" si="4"/>
@@ -13181,7 +13181,7 @@
       </c>
       <c r="B99" s="12">
         <f>B98*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>750655.76337080228</v>
+        <v>667424.18745574588</v>
       </c>
       <c r="C99">
         <f t="shared" si="4"/>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="B100" s="12">
         <f>B99*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>758565.98215653701</v>
+        <v>673697.90084669145</v>
       </c>
       <c r="C100">
         <f t="shared" si="4"/>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B101" s="12">
         <f>B100*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>766533.21244656201</v>
+        <v>680007.0867252684</v>
       </c>
       <c r="C101">
         <f t="shared" si="4"/>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B102" s="12">
         <f>B101*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>774557.86514122132</v>
+        <v>686351.945658079</v>
       </c>
       <c r="C102">
         <f t="shared" si="4"/>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="B103" s="12">
         <f>B102*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>782640.35410235077</v>
+        <v>692732.67934575828</v>
       </c>
       <c r="C103">
         <f t="shared" si="4"/>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="B104" s="12">
         <f>B103*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>790781.09617462219</v>
+        <v>699149.49062938604</v>
       </c>
       <c r="C104">
         <f t="shared" si="4"/>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="B105" s="12">
         <f>B104*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>798980.51120704168</v>
+        <v>705602.58349693497</v>
       </c>
       <c r="C105">
         <f t="shared" si="4"/>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B106" s="12">
         <f>B105*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>807239.02207460301</v>
+        <v>712092.16308975546</v>
       </c>
       <c r="C106">
         <f t="shared" si="4"/>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="B107" s="12">
         <f>B106*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>815557.05470009672</v>
+        <v>718618.43570909684</v>
       </c>
       <c r="C107">
         <f t="shared" si="4"/>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B108" s="12">
         <f>B107*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>823935.03807607654</v>
+        <v>725181.60882266588</v>
       </c>
       <c r="C108">
         <f t="shared" si="4"/>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="B109" s="12">
         <f>B108*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>832373.40428698424</v>
+        <v>731781.89107122167</v>
       </c>
       <c r="C109">
         <f t="shared" si="4"/>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B110" s="12">
         <f>B109*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>840872.58853143395</v>
+        <v>738419.4922752087</v>
       </c>
       <c r="C110">
         <f t="shared" si="4"/>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="B111" s="12">
         <f>B110*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>849433.02914465684</v>
+        <v>745094.62344142667</v>
       </c>
       <c r="C111">
         <f t="shared" si="4"/>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="B112" s="12">
         <f>B111*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>858055.16762110777</v>
+        <v>751807.4967697385</v>
       </c>
       <c r="C112">
         <f t="shared" si="4"/>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="B113" s="12">
         <f>B112*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>866739.44863723498</v>
+        <v>758558.3256598158</v>
       </c>
       <c r="C113">
         <f t="shared" si="4"/>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="B114" s="12">
         <f>B113*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>875486.32007441355</v>
+        <v>765347.32471792307</v>
       </c>
       <c r="C114">
         <f t="shared" si="4"/>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="B115" s="12">
         <f>B114*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>884296.23304204457</v>
+        <v>772174.70976373984</v>
       </c>
       <c r="C115">
         <f t="shared" si="4"/>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="B116" s="12">
         <f>B115*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>893169.64190082031</v>
+        <v>779040.69783722155</v>
       </c>
       <c r="C116">
         <f t="shared" si="4"/>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="B117" s="12">
         <f>B116*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>902107.00428615755</v>
+        <v>785945.50720549887</v>
       </c>
       <c r="C117">
         <f t="shared" si="4"/>
@@ -13580,7 +13580,7 @@
       </c>
       <c r="B118" s="12">
         <f>B117*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>911108.78113179945</v>
+        <v>792889.35736981675</v>
       </c>
       <c r="C118">
         <f t="shared" si="4"/>
@@ -13601,7 +13601,7 @@
       </c>
       <c r="B119" s="12">
         <f>B118*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>920175.43669358757</v>
+        <v>799872.469072512</v>
       </c>
       <c r="C119">
         <f t="shared" si="4"/>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="B120" s="12">
         <f>B119*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>929307.4385734055</v>
+        <v>806895.06430403085</v>
       </c>
       <c r="C120">
         <f t="shared" si="4"/>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B121" s="12">
         <f>B120*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>938505.25774329493</v>
+        <v>813957.36630998552</v>
       </c>
       <c r="C121">
         <f t="shared" si="4"/>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="B122" s="12">
         <f>B121*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>947769.3685697451</v>
+        <v>821059.59959825163</v>
       </c>
       <c r="C122">
         <f t="shared" si="4"/>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B123" s="12">
         <f>B122*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>957100.24883815798</v>
+        <v>828201.98994610494</v>
       </c>
       <c r="C123">
         <f t="shared" si="4"/>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="B124" s="12">
         <f>B123*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>966498.37977748946</v>
+        <v>835384.76440739853</v>
       </c>
       <c r="C124">
         <f t="shared" si="4"/>
@@ -13727,7 +13727,7 @@
       </c>
       <c r="B125" s="12">
         <f>B124*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>975964.24608506809</v>
+        <v>842608.15131978132</v>
       </c>
       <c r="C125">
         <f t="shared" si="4"/>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B126" s="12">
         <f>B125*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>985498.33595159277</v>
+        <v>849872.38031195616</v>
       </c>
       <c r="C126">
         <f t="shared" si="4"/>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="B127" s="12">
         <f>B126*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>995101.14108631061</v>
+        <v>857177.68231098016</v>
       </c>
       <c r="C127">
         <f t="shared" si="4"/>
@@ -13790,7 +13790,7 @@
       </c>
       <c r="B128" s="12">
         <f>B127*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1004773.1567423763</v>
+        <v>864524.28954960557</v>
       </c>
       <c r="C128">
         <f t="shared" si="4"/>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="B129" s="12">
         <f>B128*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1014514.8817423939</v>
+        <v>871912.43557366228</v>
       </c>
       <c r="C129">
         <f t="shared" si="4"/>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="B130" s="12">
         <f>B129*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1024326.8185041436</v>
+        <v>879342.35524948244</v>
       </c>
       <c r="C130">
         <f t="shared" si="4"/>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="B131" s="12">
         <f>B130*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1034209.4730664927</v>
+        <v>886814.28477136639</v>
       </c>
       <c r="C131">
         <f t="shared" si="4"/>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="B132" s="12">
         <f>B131*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1044163.3551154943</v>
+        <v>894328.46166909148</v>
       </c>
       <c r="C132">
         <f t="shared" ref="C132:C195" si="7">C131</f>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="B133" s="12">
         <f>B132*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1054188.9780106738</v>
+        <v>901885.12481546309</v>
       </c>
       <c r="C133">
         <f t="shared" si="7"/>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="B134" s="12">
         <f>B133*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1064286.8588115044</v>
+        <v>909484.51443390781</v>
       </c>
       <c r="C134">
         <f t="shared" si="7"/>
@@ -13937,7 +13937,7 @@
       </c>
       <c r="B135" s="12">
         <f>B134*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1074457.5183040744</v>
+        <v>917126.87210611079</v>
       </c>
       <c r="C135">
         <f t="shared" si="7"/>
@@ -13958,7 +13958,7 @@
       </c>
       <c r="B136" s="12">
         <f>B135*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1084701.4810279459</v>
+        <v>924812.44077969494</v>
       </c>
       <c r="C136">
         <f t="shared" si="7"/>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="B137" s="12">
         <f>B136*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1095019.2753032066</v>
+        <v>932541.46477594448</v>
       </c>
       <c r="C137">
         <f t="shared" si="7"/>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="B138" s="12">
         <f>B137*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1105411.4332577186</v>
+        <v>940314.18979757151</v>
       </c>
       <c r="C138">
         <f t="shared" si="7"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="B139" s="12">
         <f>B138*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1115878.4908545611</v>
+        <v>948130.86293652712</v>
       </c>
       <c r="C139">
         <f t="shared" si="7"/>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B140" s="12">
         <f>B139*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1126420.9879196726</v>
+        <v>955991.73268185626</v>
       </c>
       <c r="C140">
         <f t="shared" si="7"/>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="B141" s="12">
         <f>B140*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1137039.4681696917</v>
+        <v>963897.048927597</v>
       </c>
       <c r="C141">
         <f t="shared" si="7"/>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B142" s="12">
         <f>B141*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1147734.4792399989</v>
+        <v>971847.0629807245</v>
       </c>
       <c r="C142">
         <f t="shared" si="7"/>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="B143" s="12">
         <f>B142*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1158506.5727129593</v>
+        <v>979842.02756914031</v>
       </c>
       <c r="C143">
         <f t="shared" si="7"/>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="B144" s="12">
         <f>B143*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1169356.3041463711</v>
+        <v>987882.19684970623</v>
       </c>
       <c r="C144">
         <f t="shared" si="7"/>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="B145" s="12">
         <f>B144*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1180284.2331021167</v>
+        <v>995967.82641632378</v>
       </c>
       <c r="C145">
         <f t="shared" si="7"/>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B146" s="12">
         <f>B145*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1191290.9231750222</v>
+        <v>1004099.1733080597</v>
       </c>
       <c r="C146">
         <f t="shared" si="7"/>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="B147" s="12">
         <f>B146*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1202376.9420219236</v>
+        <v>1012276.4960173169</v>
       </c>
       <c r="C147">
         <f t="shared" si="7"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B148" s="12">
         <f>B147*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1213542.8613909434</v>
+        <v>1020500.054498052</v>
       </c>
       <c r="C148">
         <f t="shared" si="7"/>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="B149" s="12">
         <f>B148*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1224789.2571509776</v>
+        <v>1028770.110174039</v>
       </c>
       <c r="C149">
         <f t="shared" si="7"/>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="B150" s="12">
         <f>B149*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1236116.7093213957</v>
+        <v>1037086.92594718</v>
       </c>
       <c r="C150">
         <f t="shared" si="7"/>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="B151" s="12">
         <f>B150*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1247525.8021019541</v>
+        <v>1045450.7662058626</v>
       </c>
       <c r="C151">
         <f t="shared" si="7"/>
@@ -14294,7 +14294,7 @@
       </c>
       <c r="B152" s="12">
         <f>B151*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1259017.1239029258</v>
+        <v>1053861.8968333649</v>
       </c>
       <c r="C152">
         <f t="shared" si="7"/>
@@ -14315,7 +14315,7 @@
       </c>
       <c r="B153" s="12">
         <f>B152*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1270591.2673754466</v>
+        <v>1062320.5852163073</v>
       </c>
       <c r="C153">
         <f t="shared" si="7"/>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B154" s="12">
         <f>B153*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1282248.8294420813</v>
+        <v>1070827.1002531538</v>
       </c>
       <c r="C154">
         <f t="shared" si="7"/>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="B155" s="12">
         <f>B154*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1293990.4113276082</v>
+        <v>1079381.7123627588</v>
       </c>
       <c r="C155">
         <f t="shared" si="7"/>
@@ -14378,7 +14378,7 @@
       </c>
       <c r="B156" s="12">
         <f>B155*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1305816.6185900269</v>
+        <v>1087984.6934929644</v>
       </c>
       <c r="C156">
         <f t="shared" si="7"/>
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B157" s="12">
         <f>B156*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1317728.0611517895</v>
+        <v>1096636.3171292453</v>
       </c>
       <c r="C157">
         <f t="shared" si="7"/>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="B158" s="12">
         <f>B157*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1329725.3533312564</v>
+        <v>1105336.8583034028</v>
       </c>
       <c r="C158">
         <f t="shared" si="7"/>
@@ -14441,7 +14441,7 @@
       </c>
       <c r="B159" s="12">
         <f>B158*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1341809.1138743788</v>
+        <v>1114086.5936023081</v>
       </c>
       <c r="C159">
         <f t="shared" si="7"/>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="B160" s="12">
         <f>B159*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1353979.9659866104</v>
+        <v>1122885.8011766947</v>
       </c>
       <c r="C160">
         <f t="shared" si="7"/>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B161" s="12">
         <f>B160*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1366238.5373650477</v>
+        <v>1131734.7607500008</v>
       </c>
       <c r="C161">
         <f t="shared" si="7"/>
@@ -14504,7 +14504,7 @@
       </c>
       <c r="B162" s="12">
         <f>B161*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1378585.4602308033</v>
+        <v>1140633.7536272616</v>
       </c>
       <c r="C162">
         <f t="shared" si="7"/>
@@ -14525,7 +14525,7 @@
       </c>
       <c r="B163" s="12">
         <f>B162*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1391021.3713616119</v>
+        <v>1149583.0627040518</v>
       </c>
       <c r="C163">
         <f t="shared" si="7"/>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="B164" s="12">
         <f>B163*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1403546.9121246708</v>
+        <v>1158582.9724754791</v>
       </c>
       <c r="C164">
         <f t="shared" si="7"/>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="B165" s="12">
         <f>B164*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1416162.7285097186</v>
+        <v>1167633.7690452277</v>
       </c>
       <c r="C165">
         <f t="shared" si="7"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="B166" s="12">
         <f>B165*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1428869.4711623504</v>
+        <v>1176735.7401346534</v>
       </c>
       <c r="C166">
         <f t="shared" si="7"/>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="B167" s="12">
         <f>B166*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1441667.7954175747</v>
+        <v>1185889.1750919307</v>
       </c>
       <c r="C167">
         <f t="shared" si="7"/>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="B168" s="12">
         <f>B167*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1454558.3613336112</v>
+        <v>1195094.3649012505</v>
       </c>
       <c r="C168">
         <f t="shared" si="7"/>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="B169" s="12">
         <f>B168*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1467541.8337259325</v>
+        <v>1204351.6021920708</v>
       </c>
       <c r="C169">
         <f t="shared" si="7"/>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B170" s="12">
         <f>B169*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1480618.8822015515</v>
+        <v>1213661.1812484192</v>
       </c>
       <c r="C170">
         <f t="shared" si="7"/>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="B171" s="12">
         <f>B170*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1493790.181193555</v>
+        <v>1223023.3980182479</v>
       </c>
       <c r="C171">
         <f t="shared" si="7"/>
@@ -14714,7 +14714,7 @@
       </c>
       <c r="B172" s="12">
         <f>B171*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1507056.4099958874</v>
+        <v>1232438.5501228415</v>
       </c>
       <c r="C172">
         <f t="shared" si="7"/>
@@ -14735,7 +14735,7 @@
       </c>
       <c r="B173" s="12">
         <f>B172*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1520418.2527983841</v>
+        <v>1241906.936866279</v>
       </c>
       <c r="C173">
         <f t="shared" si="7"/>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B174" s="12">
         <f>B173*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1533876.3987220577</v>
+        <v>1251428.859244948</v>
       </c>
       <c r="C174">
         <f t="shared" si="7"/>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="B175" s="12">
         <f>B174*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1547431.5418546391</v>
+        <v>1261004.6199571136</v>
       </c>
       <c r="C175">
         <f t="shared" si="7"/>
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B176" s="12">
         <f>B175*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1561084.3812863734</v>
+        <v>1270634.5234125408</v>
       </c>
       <c r="C176">
         <f t="shared" si="7"/>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="B177" s="12">
         <f>B176*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1574835.6211460754</v>
+        <v>1280318.8757421717</v>
       </c>
       <c r="C177">
         <f t="shared" si="7"/>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="B178" s="12">
         <f>B177*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1588685.9706374442</v>
+        <v>1290057.9848078571</v>
       </c>
       <c r="C178">
         <f t="shared" si="7"/>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="B179" s="12">
         <f>B178*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1602636.1440756386</v>
+        <v>1299852.1602121438</v>
       </c>
       <c r="C179">
         <f t="shared" si="7"/>
@@ -14882,7 +14882,7 @@
       </c>
       <c r="B180" s="12">
         <f>B179*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1616686.8609241184</v>
+        <v>1309701.713308116</v>
       </c>
       <c r="C180">
         <f t="shared" si="7"/>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B181" s="12">
         <f>B180*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1630838.8458317488</v>
+        <v>1319606.9572092937</v>
       </c>
       <c r="C181">
         <f t="shared" si="7"/>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="B182" s="12">
         <f>B181*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1645092.8286701734</v>
+        <v>1329568.2067995865</v>
       </c>
       <c r="C182">
         <f t="shared" si="7"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="B183" s="12">
         <f>B182*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1659449.5445714572</v>
+        <v>1339585.7787433031</v>
       </c>
       <c r="C183">
         <f t="shared" si="7"/>
@@ -14966,7 +14966,7 @@
       </c>
       <c r="B184" s="12">
         <f>B183*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1673909.7339659994</v>
+        <v>1349659.9914952184</v>
       </c>
       <c r="C184">
         <f t="shared" si="7"/>
@@ -14987,7 +14987,7 @@
       </c>
       <c r="B185" s="12">
         <f>B184*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1688474.1426207209</v>
+        <v>1359791.1653106965</v>
       </c>
       <c r="C185">
         <f t="shared" si="7"/>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="B186" s="12">
         <f>B185*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1703143.5216775252</v>
+        <v>1369979.6222558725</v>
       </c>
       <c r="C186">
         <f t="shared" si="7"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="B187" s="12">
         <f>B186*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1717918.6276920389</v>
+        <v>1380225.6862178897</v>
       </c>
       <c r="C187">
         <f t="shared" si="7"/>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="B188" s="12">
         <f>B187*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1732800.2226726294</v>
+        <v>1390529.6829151968</v>
       </c>
       <c r="C188">
         <f t="shared" si="7"/>
@@ -15071,7 +15071,7 @@
       </c>
       <c r="B189" s="12">
         <f>B188*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1747789.0741197048</v>
+        <v>1400891.9399079019</v>
       </c>
       <c r="C189">
         <f t="shared" si="7"/>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B190" s="12">
         <f>B189*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1762885.9550652967</v>
+        <v>1411312.7866081854</v>
       </c>
       <c r="C190">
         <f t="shared" si="7"/>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B191" s="12">
         <f>B190*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1778091.6441129288</v>
+        <v>1421792.5542907722</v>
       </c>
       <c r="C191">
         <f t="shared" si="7"/>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="B192" s="12">
         <f>B191*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1793406.9254777718</v>
+        <v>1432331.5761034626</v>
       </c>
       <c r="C192">
         <f t="shared" si="7"/>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="B193" s="12">
         <f>B192*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1808832.5890270888</v>
+        <v>1442930.187077723</v>
       </c>
       <c r="C193">
         <f t="shared" si="7"/>
@@ -15176,7 +15176,7 @@
       </c>
       <c r="B194" s="12">
         <f>B193*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1824369.4303209716</v>
+        <v>1453588.7241393363</v>
       </c>
       <c r="C194">
         <f t="shared" si="7"/>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="B195" s="12">
         <f>B194*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1840018.250653371</v>
+        <v>1464307.526119113</v>
       </c>
       <c r="C195">
         <f t="shared" si="7"/>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="B196" s="12">
         <f>B195*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1855779.8570934222</v>
+        <v>1475086.9337636621</v>
       </c>
       <c r="C196">
         <f t="shared" ref="C196:C259" si="10">C195</f>
@@ -15239,7 +15239,7 @@
       </c>
       <c r="B197" s="12">
         <f>B196*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1871655.0625270684</v>
+        <v>1485927.2897462237</v>
       </c>
       <c r="C197">
         <f t="shared" si="10"/>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="B198" s="12">
         <f>B197*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1887644.6856989851</v>
+        <v>1496828.9386775619</v>
       </c>
       <c r="C198">
         <f t="shared" si="10"/>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="B199" s="12">
         <f>B198*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1903749.5512548049</v>
+        <v>1507792.2271169205</v>
       </c>
       <c r="C199">
         <f t="shared" si="10"/>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="B200" s="12">
         <f>B199*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1919970.4897836484</v>
+        <v>1518817.5035830392</v>
       </c>
       <c r="C200">
         <f t="shared" si="10"/>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="B201" s="12">
         <f>B200*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1936308.3378609605</v>
+        <v>1529905.1185652337</v>
       </c>
       <c r="C201">
         <f t="shared" si="10"/>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B202" s="12">
         <f>B201*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1952763.9380916557</v>
+        <v>1541055.4245345369</v>
       </c>
       <c r="C202">
         <f t="shared" si="10"/>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="B203" s="12">
         <f>B202*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1969338.1391535746</v>
+        <v>1552268.7759549047</v>
       </c>
       <c r="C203">
         <f t="shared" si="10"/>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="B204" s="12">
         <f>B203*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>1986031.7958412534</v>
+        <v>1563545.5292944834</v>
       </c>
       <c r="C204">
         <f t="shared" si="10"/>
@@ -15407,7 +15407,7 @@
       </c>
       <c r="B205" s="12">
         <f>B204*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2002845.7691100088</v>
+        <v>1574886.0430369419</v>
       </c>
       <c r="C205">
         <f t="shared" si="10"/>
@@ -15428,7 +15428,7 @@
       </c>
       <c r="B206" s="12">
         <f>B205*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2019780.9261203413</v>
+        <v>1586290.6776928683</v>
       </c>
       <c r="C206">
         <f t="shared" si="10"/>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="B207" s="12">
         <f>B206*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2036838.1402826565</v>
+        <v>1597759.7958112294</v>
       </c>
       <c r="C207">
         <f t="shared" si="10"/>
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B208" s="12">
         <f>B207*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2054018.2913023122</v>
+        <v>1609293.7619908971</v>
       </c>
       <c r="C208">
         <f t="shared" si="10"/>
@@ -15491,7 +15491,7 @@
       </c>
       <c r="B209" s="12">
         <f>B208*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2071322.2652249867</v>
+        <v>1620892.942892238</v>
       </c>
       <c r="C209">
         <f t="shared" si="10"/>
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B210" s="12">
         <f>B209*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2088750.9544823759</v>
+        <v>1632557.7072487699</v>
       </c>
       <c r="C210">
         <f t="shared" si="10"/>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="B211" s="12">
         <f>B210*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2106305.2579382197</v>
+        <v>1644288.4258788836</v>
       </c>
       <c r="C211">
         <f t="shared" si="10"/>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="B212" s="12">
         <f>B211*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2123986.0809346591</v>
+        <v>1656085.4716976306</v>
       </c>
       <c r="C212">
         <f t="shared" si="10"/>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="B213" s="12">
         <f>B212*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2141794.3353389292</v>
+        <v>1667949.2197285786</v>
       </c>
       <c r="C213">
         <f t="shared" si="10"/>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="B214" s="12">
         <f>B213*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2159730.939590387</v>
+        <v>1679880.0471157331</v>
       </c>
       <c r="C214">
         <f t="shared" si="10"/>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B215" s="12">
         <f>B214*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2177796.8187478785</v>
+        <v>1691878.3331355266</v>
       </c>
       <c r="C215">
         <f t="shared" si="10"/>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="B216" s="12">
         <f>B215*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2195992.9045374487</v>
+        <v>1703944.4592088759</v>
       </c>
       <c r="C216">
         <f t="shared" si="10"/>
@@ -15659,7 +15659,7 @@
       </c>
       <c r="B217" s="12">
         <f>B216*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2214320.1354003921</v>
+        <v>1716078.8089133066</v>
       </c>
       <c r="C217">
         <f t="shared" si="10"/>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="B218" s="12">
         <f>B217*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2232779.4565416542</v>
+        <v>1728281.7679951477</v>
       </c>
       <c r="C218">
         <f t="shared" si="10"/>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="B219" s="12">
         <f>B218*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2251371.819978578</v>
+        <v>1740553.7243817942</v>
       </c>
       <c r="C219">
         <f t="shared" si="10"/>
@@ -15722,7 +15722,7 @@
       </c>
       <c r="B220" s="12">
         <f>B219*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2270098.184590003</v>
+        <v>1752895.0681940387</v>
       </c>
       <c r="C220">
         <f t="shared" si="10"/>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B221" s="12">
         <f>B220*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2288959.516165718</v>
+        <v>1765306.1917584734</v>
       </c>
       <c r="C221">
         <f t="shared" si="10"/>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="B222" s="12">
         <f>B221*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2307956.7874562722</v>
+        <v>1777787.4896199626</v>
       </c>
       <c r="C222">
         <f t="shared" si="10"/>
@@ -15785,7 +15785,7 @@
       </c>
       <c r="B223" s="12">
         <f>B222*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2327090.9782231417</v>
+        <v>1790339.3585541842</v>
       </c>
       <c r="C223">
         <f t="shared" si="10"/>
@@ -15806,7 +15806,7 @@
       </c>
       <c r="B224" s="12">
         <f>B223*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2346363.0752892606</v>
+        <v>1802962.1975802435</v>
       </c>
       <c r="C224">
         <f t="shared" si="10"/>
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B225" s="12">
         <f>B224*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2365774.0725899152</v>
+        <v>1815656.4079733579</v>
       </c>
       <c r="C225">
         <f t="shared" si="10"/>
@@ -15848,7 +15848,7 @@
       </c>
       <c r="B226" s="12">
         <f>B225*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2385324.9712240044</v>
+        <v>1828422.3932776134</v>
       </c>
       <c r="C226">
         <f t="shared" si="10"/>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="B227" s="12">
         <f>B226*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2405016.7795056705</v>
+        <v>1841260.5593187925</v>
       </c>
       <c r="C227">
         <f t="shared" si="10"/>
@@ -15890,7 +15890,7 @@
       </c>
       <c r="B228" s="12">
         <f>B227*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2424850.5130163017</v>
+        <v>1854171.3142172762</v>
       </c>
       <c r="C228">
         <f t="shared" si="10"/>
@@ -15911,7 +15911,7 @@
       </c>
       <c r="B229" s="12">
         <f>B228*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2444827.1946569099</v>
+        <v>1867155.068401017</v>
       </c>
       <c r="C229">
         <f t="shared" si="10"/>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="B230" s="12">
         <f>B229*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2464947.8547008857</v>
+        <v>1880212.234618587</v>
       </c>
       <c r="C230">
         <f t="shared" si="10"/>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="B231" s="12">
         <f>B230*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2485213.5308471327</v>
+        <v>1893343.2279522987</v>
       </c>
       <c r="C231">
         <f t="shared" si="10"/>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="B232" s="12">
         <f>B231*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2505625.2682735855</v>
+        <v>1906548.4658314001</v>
       </c>
       <c r="C232">
         <f t="shared" si="10"/>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B233" s="12">
         <f>B232*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2526184.1196911149</v>
+        <v>1919828.3680453454</v>
       </c>
       <c r="C233">
         <f t="shared" si="10"/>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B234" s="12">
         <f>B233*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2546891.1453978191</v>
+        <v>1933183.3567571389</v>
       </c>
       <c r="C234">
         <f t="shared" si="10"/>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="B235" s="12">
         <f>B234*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2567747.413333707</v>
+        <v>1946613.8565167559</v>
       </c>
       <c r="C235">
         <f t="shared" si="10"/>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="B236" s="12">
         <f>B235*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2588753.9991357769</v>
+        <v>1960120.2942746393</v>
       </c>
       <c r="C236">
         <f t="shared" si="10"/>
@@ -16079,7 +16079,7 @@
       </c>
       <c r="B237" s="12">
         <f>B236*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2609911.9861934902</v>
+        <v>1973703.0993952719</v>
       </c>
       <c r="C237">
         <f t="shared" si="10"/>
@@ -16100,7 +16100,7 @@
       </c>
       <c r="B238" s="12">
         <f>B237*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2631222.4657046474</v>
+        <v>1987362.7036708251</v>
       </c>
       <c r="C238">
         <f t="shared" si="10"/>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="B239" s="12">
         <f>B238*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2652686.5367316632</v>
+        <v>2001099.5413348868</v>
       </c>
       <c r="C239">
         <f t="shared" si="10"/>
@@ -16142,7 +16142,7 @@
       </c>
       <c r="B240" s="12">
         <f>B239*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2674305.3062582514</v>
+        <v>2014914.0490762643</v>
       </c>
       <c r="C240">
         <f t="shared" si="10"/>
@@ -16163,7 +16163,7 @@
       </c>
       <c r="B241" s="12">
         <f>B240*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2696079.8892465145</v>
+        <v>2028806.666052867</v>
       </c>
       <c r="C241">
         <f t="shared" si="10"/>
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B242" s="12">
         <f>B241*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2718011.4086944484</v>
+        <v>2042777.8339056668</v>
       </c>
       <c r="C242">
         <f t="shared" si="10"/>
@@ -16205,7 +16205,7 @@
       </c>
       <c r="B243" s="12">
         <f>B242*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2740100.9956938573</v>
+        <v>2056827.9967727384</v>
       </c>
       <c r="C243">
         <f t="shared" si="10"/>
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B244" s="12">
         <f>B243*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2762349.7894886909</v>
+        <v>2070957.601303377</v>
       </c>
       <c r="C244">
         <f t="shared" si="10"/>
@@ -16247,7 +16247,7 @@
       </c>
       <c r="B245" s="12">
         <f>B244*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2784758.9375337982</v>
+        <v>2085167.0966722984</v>
       </c>
       <c r="C245">
         <f t="shared" si="10"/>
@@ -16268,7 +16268,7 @@
       </c>
       <c r="B246" s="12">
         <f>B245*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2807329.5955541055</v>
+        <v>2099456.9345939173</v>
       </c>
       <c r="C246">
         <f t="shared" si="10"/>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="B247" s="12">
         <f>B246*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2830062.9276042231</v>
+        <v>2113827.5693367077</v>
       </c>
       <c r="C247">
         <f t="shared" si="10"/>
@@ -16310,7 +16310,7 @@
       </c>
       <c r="B248" s="12">
         <f>B247*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2852960.1061284794</v>
+        <v>2128279.4577376428</v>
       </c>
       <c r="C248">
         <f t="shared" si="10"/>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="B249" s="12">
         <f>B248*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2876022.3120213868</v>
+        <v>2142813.0592167196</v>
       </c>
       <c r="C249">
         <f t="shared" si="10"/>
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B250" s="12">
         <f>B249*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2899250.7346885479</v>
+        <v>2157428.8357915618</v>
       </c>
       <c r="C250">
         <f t="shared" si="10"/>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B251" s="12">
         <f>B250*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2922646.5721079954</v>
+        <v>2172127.2520921077</v>
       </c>
       <c r="C251">
         <f t="shared" si="10"/>
@@ -16394,7 +16394,7 @@
       </c>
       <c r="B252" s="12">
         <f>B251*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2946211.0308919763</v>
+        <v>2186908.7753753816</v>
       </c>
       <c r="C252">
         <f t="shared" si="10"/>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="B253" s="12">
         <f>B252*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2969945.3263491835</v>
+        <v>2201773.8755403464</v>
       </c>
       <c r="C253">
         <f t="shared" si="10"/>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B254" s="12">
         <f>B253*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>2993850.682547431</v>
+        <v>2216723.0251428424</v>
       </c>
       <c r="C254">
         <f t="shared" si="10"/>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="B255" s="12">
         <f>B254*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3017928.332376787</v>
+        <v>2231756.699410609</v>
       </c>
       <c r="C255">
         <f t="shared" si="10"/>
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B256" s="12">
         <f>B255*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3042179.5176131558</v>
+        <v>2246875.3762583924</v>
       </c>
       <c r="C256">
         <f t="shared" si="10"/>
@@ -16499,7 +16499,7 @@
       </c>
       <c r="B257" s="12">
         <f>B256*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3066605.4889823226</v>
+        <v>2262079.5363031384</v>
       </c>
       <c r="C257">
         <f t="shared" si="10"/>
@@ -16520,7 +16520,7 @@
       </c>
       <c r="B258" s="12">
         <f>B257*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3091207.5062244576</v>
+        <v>2277369.6628792705</v>
       </c>
       <c r="C258">
         <f t="shared" si="10"/>
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B259" s="12">
         <f>B258*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3115986.8381590862</v>
+        <v>2292746.2420540559</v>
       </c>
       <c r="C259">
         <f t="shared" si="10"/>
@@ -16562,7 +16562,7 @@
       </c>
       <c r="B260" s="12">
         <f>B259*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3140944.7627505255</v>
+        <v>2308209.7626430565</v>
       </c>
       <c r="C260">
         <f t="shared" ref="C260:C323" si="13">C259</f>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="B261" s="12">
         <f>B260*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3166082.5671737948</v>
+        <v>2323760.7162256683</v>
       </c>
       <c r="C261">
         <f t="shared" si="13"/>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="B262" s="12">
         <f>B261*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3191401.5478810007</v>
+        <v>2339399.5971607491</v>
       </c>
       <c r="C262">
         <f t="shared" si="13"/>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="B263" s="12">
         <f>B262*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3216903.0106681981</v>
+        <v>2355126.9026023336</v>
       </c>
       <c r="C263">
         <f t="shared" si="13"/>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="B264" s="12">
         <f>B263*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3242588.2707427372</v>
+        <v>2370943.1325154365</v>
       </c>
       <c r="C264">
         <f t="shared" si="13"/>
@@ -16667,7 +16667,7 @@
       </c>
       <c r="B265" s="12">
         <f>B264*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3268458.6527910926</v>
+        <v>2386848.7896919488</v>
       </c>
       <c r="C265">
         <f t="shared" si="13"/>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B266" s="12">
         <f>B265*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3294515.4910471826</v>
+        <v>2402844.3797666193</v>
       </c>
       <c r="C266">
         <f t="shared" si="13"/>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="B267" s="12">
         <f>B266*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3320760.1293611806</v>
+        <v>2418930.4112331294</v>
       </c>
       <c r="C267">
         <f t="shared" si="13"/>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="B268" s="12">
         <f>B267*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3347193.9212688226</v>
+        <v>2435107.3954602578</v>
       </c>
       <c r="C268">
         <f t="shared" si="13"/>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="B269" s="12">
         <f>B268*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3373818.2300612144</v>
+        <v>2451375.8467081357</v>
       </c>
       <c r="C269">
         <f t="shared" si="13"/>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="B270" s="12">
         <f>B269*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3400634.4288551416</v>
+        <v>2467736.2821445973</v>
       </c>
       <c r="C270">
         <f t="shared" si="13"/>
@@ -16793,7 +16793,7 @@
       </c>
       <c r="B271" s="12">
         <f>B270*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3427643.9006638867</v>
+        <v>2484189.2218616176</v>
       </c>
       <c r="C271">
         <f t="shared" si="13"/>
@@ -16814,7 +16814,7 @@
       </c>
       <c r="B272" s="12">
         <f>B271*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3454848.0384685555</v>
+        <v>2500735.1888918485</v>
       </c>
       <c r="C272">
         <f t="shared" si="13"/>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="B273" s="12">
         <f>B272*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3482248.245289919</v>
+        <v>2517374.7092252434</v>
       </c>
       <c r="C273">
         <f t="shared" si="13"/>
@@ -16856,7 +16856,7 @@
       </c>
       <c r="B274" s="12">
         <f>B273*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3509845.934260773</v>
+        <v>2534108.3118257802</v>
       </c>
       <c r="C274">
         <f t="shared" si="13"/>
@@ -16877,7 +16877,7 @@
       </c>
       <c r="B275" s="12">
         <f>B274*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3537642.5286988183</v>
+        <v>2550936.5286482754</v>
       </c>
       <c r="C275">
         <f t="shared" si="13"/>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="B276" s="12">
         <f>B275*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3565639.4621800659</v>
+        <v>2567859.8946552956</v>
       </c>
       <c r="C276">
         <f t="shared" si="13"/>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="B277" s="12">
         <f>B276*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3593838.1786127733</v>
+        <v>2584878.9478341639</v>
       </c>
       <c r="C277">
         <f t="shared" si="13"/>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B278" s="12">
         <f>B277*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3622240.1323119113</v>
+        <v>2601994.2292140615</v>
       </c>
       <c r="C278">
         <f t="shared" si="13"/>
@@ -16961,7 +16961,7 @@
       </c>
       <c r="B279" s="12">
         <f>B278*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3650846.7880741693</v>
+        <v>2619206.2828832273</v>
       </c>
       <c r="C279">
         <f t="shared" si="13"/>
@@ -16982,7 +16982,7 @@
       </c>
       <c r="B280" s="12">
         <f>B279*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3679659.6212534993</v>
+        <v>2636515.6560062543</v>
       </c>
       <c r="C280">
         <f t="shared" si="13"/>
@@ -17003,7 +17003,7 @@
       </c>
       <c r="B281" s="12">
         <f>B280*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3708680.1178372065</v>
+        <v>2653922.898841484</v>
       </c>
       <c r="C281">
         <f t="shared" si="13"/>
@@ -17024,7 +17024,7 @@
       </c>
       <c r="B282" s="12">
         <f>B281*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3737909.7745225872</v>
+        <v>2671428.5647584978</v>
       </c>
       <c r="C282">
         <f t="shared" si="13"/>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="B283" s="12">
         <f>B282*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3767350.098794119</v>
+        <v>2689033.2102557095</v>
       </c>
       <c r="C283">
         <f t="shared" si="13"/>
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B284" s="12">
         <f>B283*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3797002.6090012076</v>
+        <v>2706737.3949780562</v>
       </c>
       <c r="C284">
         <f t="shared" si="13"/>
@@ -17087,7 +17087,7 @@
       </c>
       <c r="B285" s="12">
         <f>B284*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3826868.8344364939</v>
+        <v>2724541.6817347887</v>
       </c>
       <c r="C285">
         <f t="shared" si="13"/>
@@ -17108,7 +17108,7 @@
       </c>
       <c r="B286" s="12">
         <f>B285*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3856950.3154147249</v>
+        <v>2742446.6365173627</v>
       </c>
       <c r="C286">
         <f t="shared" si="13"/>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B287" s="12">
         <f>B286*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3887248.6033521942</v>
+        <v>2760452.8285174323</v>
       </c>
       <c r="C287">
         <f t="shared" si="13"/>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="B288" s="12">
         <f>B287*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3917765.2608467545</v>
+        <v>2778560.8301449441</v>
       </c>
       <c r="C288">
         <f t="shared" si="13"/>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="B289" s="12">
         <f>B288*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3948501.8617584058</v>
+        <v>2796771.217046333</v>
       </c>
       <c r="C289">
         <f t="shared" si="13"/>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="B290" s="12">
         <f>B289*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>3979459.9912904664</v>
+        <v>2815084.5681228233</v>
       </c>
       <c r="C290">
         <f t="shared" si="13"/>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="B291" s="12">
         <f>B290*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4010641.2460713275</v>
+        <v>2833501.4655488306</v>
       </c>
       <c r="C291">
         <f t="shared" si="13"/>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="B292" s="12">
         <f>B291*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4042047.2342367969</v>
+        <v>2852022.4947904698</v>
       </c>
       <c r="C292">
         <f t="shared" si="13"/>
@@ -17255,7 +17255,7 @@
       </c>
       <c r="B293" s="12">
         <f>B292*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4073679.5755130379</v>
+        <v>2870648.2446241654</v>
       </c>
       <c r="C293">
         <f t="shared" si="13"/>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="B294" s="12">
         <f>B293*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4105539.9013001029</v>
+        <v>2889379.3071553702</v>
       </c>
       <c r="C294">
         <f t="shared" si="13"/>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="B295" s="12">
         <f>B294*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4137629.8547560726</v>
+        <v>2908216.2778373868</v>
       </c>
       <c r="C295">
         <f t="shared" si="13"/>
@@ -17318,7 +17318,7 @@
       </c>
       <c r="B296" s="12">
         <f>B295*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4169951.0908817993</v>
+        <v>2927159.7554902979</v>
       </c>
       <c r="C296">
         <f t="shared" si="13"/>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="B297" s="12">
         <f>B296*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4202505.2766062617</v>
+        <v>2946210.3423200017</v>
       </c>
       <c r="C297">
         <f t="shared" si="13"/>
@@ -17360,7 +17360,7 @@
       </c>
       <c r="B298" s="12">
         <f>B297*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4235294.0908725336</v>
+        <v>2965368.6439373558</v>
       </c>
       <c r="C298">
         <f t="shared" si="13"/>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="B299" s="12">
         <f>B298*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4268319.2247243756</v>
+        <v>2984635.2693774304</v>
       </c>
       <c r="C299">
         <f t="shared" si="13"/>
@@ -17402,7 +17402,7 @@
       </c>
       <c r="B300" s="12">
         <f>B299*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4301582.3813934466</v>
+        <v>3004010.8311188677</v>
       </c>
       <c r="C300">
         <f t="shared" si="13"/>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="B301" s="12">
         <f>B300*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4335085.2763871467</v>
+        <v>3023495.9451033538</v>
       </c>
       <c r="C301">
         <f t="shared" si="13"/>
@@ -17444,7 +17444,7 @@
       </c>
       <c r="B302" s="12">
         <f>B301*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4368829.6375770923</v>
+        <v>3043091.2307551983</v>
       </c>
       <c r="C302">
         <f t="shared" si="13"/>
@@ -17465,7 +17465,7 @@
       </c>
       <c r="B303" s="12">
         <f>B302*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4402817.2052882304</v>
+        <v>3062797.3110010261</v>
       </c>
       <c r="C303">
         <f t="shared" si="13"/>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="B304" s="12">
         <f>B303*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4437049.7323885923</v>
+        <v>3082614.8122895798</v>
       </c>
       <c r="C304">
         <f t="shared" si="13"/>
@@ -17507,7 +17507,7 @@
       </c>
       <c r="B305" s="12">
         <f>B304*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4471528.9843796948</v>
+        <v>3102544.3646116341</v>
       </c>
       <c r="C305">
         <f t="shared" si="13"/>
@@ -17528,7 +17528,7 @@
       </c>
       <c r="B306" s="12">
         <f>B305*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4506256.7394875959</v>
+        <v>3122586.6015200233</v>
       </c>
       <c r="C306">
         <f t="shared" si="13"/>
@@ -17549,7 +17549,7 @@
       </c>
       <c r="B307" s="12">
         <f>B306*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4541234.7887546029</v>
+        <v>3142742.160149781</v>
       </c>
       <c r="C307">
         <f t="shared" si="13"/>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="B308" s="12">
         <f>B307*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4576464.936131645</v>
+        <v>3163011.6812383961</v>
       </c>
       <c r="C308">
         <f t="shared" si="13"/>
@@ -17591,7 +17591,7 @@
       </c>
       <c r="B309" s="12">
         <f>B308*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4611948.9985713083</v>
+        <v>3183395.8091461794</v>
       </c>
       <c r="C309">
         <f t="shared" si="13"/>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B310" s="12">
         <f>B309*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4647688.8061215449</v>
+        <v>3203895.1918767486</v>
       </c>
       <c r="C310">
         <f t="shared" si="13"/>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="B311" s="12">
         <f>B310*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4683686.2020200519</v>
+        <v>3224510.4810976284</v>
       </c>
       <c r="C311">
         <f t="shared" si="13"/>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B312" s="12">
         <f>B311*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4719943.0427893391</v>
+        <v>3245242.3321609665</v>
       </c>
       <c r="C312">
         <f t="shared" si="13"/>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="B313" s="12">
         <f>B312*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4756461.1983324718</v>
+        <v>3266091.4041243666</v>
       </c>
       <c r="C313">
         <f t="shared" si="13"/>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="B314" s="12">
         <f>B313*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4793242.5520295128</v>
+        <v>3287058.3597718403</v>
       </c>
       <c r="C314">
         <f t="shared" si="13"/>
@@ -17717,7 +17717,7 @@
       </c>
       <c r="B315" s="12">
         <f>B314*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4830289.0008346541</v>
+        <v>3308143.8656348763</v>
       </c>
       <c r="C315">
         <f t="shared" si="13"/>
@@ -17738,7 +17738,7 @@
       </c>
       <c r="B316" s="12">
         <f>B315*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4867602.4553740481</v>
+        <v>3329348.5920136287</v>
       </c>
       <c r="C316">
         <f t="shared" si="13"/>
@@ -17759,7 +17759,7 @@
       </c>
       <c r="B317" s="12">
         <f>B316*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4905184.8400443494</v>
+        <v>3350673.2129982268</v>
       </c>
       <c r="C317">
         <f t="shared" si="13"/>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B318" s="12">
         <f>B317*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4943038.0931119611</v>
+        <v>3372118.406490203</v>
       </c>
       <c r="C318">
         <f t="shared" si="13"/>
@@ -17801,7 +17801,7 @@
       </c>
       <c r="B319" s="12">
         <f>B318*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>4981164.1668129992</v>
+        <v>3393684.8542240439</v>
       </c>
       <c r="C319">
         <f t="shared" si="13"/>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="B320" s="12">
         <f>B319*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5019565.0274539748</v>
+        <v>3415373.2417888618</v>
       </c>
       <c r="C320">
         <f t="shared" si="13"/>
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B321" s="12">
         <f>B320*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5058242.6555132084</v>
+        <v>3437184.2586501897</v>
       </c>
       <c r="C321">
         <f t="shared" si="13"/>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="B322" s="12">
         <f>B321*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5097199.0457429662</v>
+        <v>3459118.5981718986</v>
       </c>
       <c r="C322">
         <f t="shared" si="13"/>
@@ -17885,7 +17885,7 @@
       </c>
       <c r="B323" s="12">
         <f>B322*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5136436.2072723396</v>
+        <v>3481176.95763824</v>
       </c>
       <c r="C323">
         <f t="shared" si="13"/>
@@ -17906,7 +17906,7 @@
       </c>
       <c r="B324" s="12">
         <f>B323*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5175956.1637108624</v>
+        <v>3503360.0382760116</v>
       </c>
       <c r="C324">
         <f t="shared" ref="C324:C387" si="16">C323</f>
@@ -17927,7 +17927,7 @@
       </c>
       <c r="B325" s="12">
         <f>B324*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5215760.9532528771</v>
+        <v>3525668.54527685</v>
       </c>
       <c r="C325">
         <f t="shared" si="16"/>
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B326" s="12">
         <f>B325*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5255852.6287826523</v>
+        <v>3548103.1878196471</v>
       </c>
       <c r="C326">
         <f t="shared" si="16"/>
@@ -17969,7 +17969,7 @@
       </c>
       <c r="B327" s="12">
         <f>B326*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5296233.2579802563</v>
+        <v>3570664.6790930955</v>
       </c>
       <c r="C327">
         <f t="shared" si="16"/>
@@ -17990,7 +17990,7 @@
       </c>
       <c r="B328" s="12">
         <f>B327*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5336904.9234281965</v>
+        <v>3593353.7363183605</v>
       </c>
       <c r="C328">
         <f t="shared" si="16"/>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="B329" s="12">
         <f>B328*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5377869.7227188256</v>
+        <v>3616171.0807718807</v>
       </c>
       <c r="C329">
         <f t="shared" si="16"/>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="B330" s="12">
         <f>B329*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5419129.7685625227</v>
+        <v>3639117.4378082952</v>
       </c>
       <c r="C330">
         <f t="shared" si="16"/>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="B331" s="12">
         <f>B330*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5460687.1888966542</v>
+        <v>3662193.5368835051</v>
       </c>
       <c r="C331">
         <f t="shared" si="16"/>
@@ -18074,7 +18074,7 @@
       </c>
       <c r="B332" s="12">
         <f>B331*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5502544.1269953176</v>
+        <v>3685400.1115778605</v>
       </c>
       <c r="C332">
         <f t="shared" si="16"/>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="B333" s="12">
         <f>B332*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5544702.7415798819</v>
+        <v>3708737.8996194815</v>
       </c>
       <c r="C333">
         <f t="shared" si="16"/>
@@ -18116,7 +18116,7 @@
       </c>
       <c r="B334" s="12">
         <f>B333*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5587165.2069303179</v>
+        <v>3732207.6429077103</v>
       </c>
       <c r="C334">
         <f t="shared" si="16"/>
@@ -18137,7 +18137,7 @@
       </c>
       <c r="B335" s="12">
         <f>B334*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5629933.712997335</v>
+        <v>3755810.0875366954</v>
       </c>
       <c r="C335">
         <f t="shared" si="16"/>
@@ -18158,7 +18158,7 @@
       </c>
       <c r="B336" s="12">
         <f>B335*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5673010.4655153248</v>
+        <v>3779545.9838191113</v>
       </c>
       <c r="C336">
         <f t="shared" si="16"/>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="B337" s="12">
         <f>B336*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5716397.6861161208</v>
+        <v>3803416.0863100081</v>
       </c>
       <c r="C337">
         <f t="shared" si="16"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="B338" s="12">
         <f>B337*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5760097.6124435756</v>
+        <v>3827421.1538308007</v>
       </c>
       <c r="C338">
         <f t="shared" si="16"/>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="B339" s="12">
         <f>B338*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5804112.4982689638</v>
+        <v>3851561.9494933905</v>
       </c>
       <c r="C339">
         <f t="shared" si="16"/>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B340" s="12">
         <f>B339*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5848444.6136072185</v>
+        <v>3875839.2407244244</v>
       </c>
       <c r="C340">
         <f t="shared" si="16"/>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B341" s="12">
         <f>B340*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5893096.244834004</v>
+        <v>3900253.7992896908</v>
       </c>
       <c r="C341">
         <f t="shared" si="16"/>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B342" s="12">
         <f>B341*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5938069.6948036337</v>
+        <v>3924806.4013186544</v>
       </c>
       <c r="C342">
         <f t="shared" si="16"/>
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B343" s="12">
         <f>B342*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>5983367.2829678366</v>
+        <v>3949497.827329129</v>
       </c>
       <c r="C343">
         <f t="shared" si="16"/>
@@ -18326,7 +18326,7 @@
       </c>
       <c r="B344" s="12">
         <f>B343*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6028991.3454953805</v>
+        <v>3974328.8622520892</v>
       </c>
       <c r="C344">
         <f t="shared" si="16"/>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="B345" s="12">
         <f>B344*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6074944.2353925556</v>
+        <v>3999300.2954566237</v>
       </c>
       <c r="C345">
         <f t="shared" si="16"/>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B346" s="12">
         <f>B345*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6121228.3226245306</v>
+        <v>4024412.9207750284</v>
       </c>
       <c r="C346">
         <f t="shared" si="16"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B347" s="12">
         <f>B346*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6167845.9942375785</v>
+        <v>4049667.5365280425</v>
       </c>
       <c r="C347">
         <f t="shared" si="16"/>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="B348" s="12">
         <f>B347*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6214799.6544821877</v>
+        <v>4075064.9455502275</v>
       </c>
       <c r="C348">
         <f t="shared" si="16"/>
@@ -18431,7 +18431,7 @@
       </c>
       <c r="B349" s="12">
         <f>B348*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6262091.7249370553</v>
+        <v>4100605.9552154872</v>
       </c>
       <c r="C349">
         <f t="shared" si="16"/>
@@ -18452,7 +18452,7 @@
       </c>
       <c r="B350" s="12">
         <f>B349*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6309724.6446339805</v>
+        <v>4126291.3774627354</v>
       </c>
       <c r="C350">
         <f t="shared" si="16"/>
@@ -18473,7 +18473,7 @@
       </c>
       <c r="B351" s="12">
         <f>B350*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6357700.8701836532</v>
+        <v>4152122.0288217063</v>
       </c>
       <c r="C351">
         <f t="shared" si="16"/>
@@ -18494,7 +18494,7 @@
       </c>
       <c r="B352" s="12">
         <f>B351*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6406022.875902351</v>
+        <v>4178098.7304389123</v>
       </c>
       <c r="C352">
         <f t="shared" si="16"/>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="B353" s="12">
         <f>B352*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6454693.153939547</v>
+        <v>4204222.3081037477</v>
       </c>
       <c r="C353">
         <f t="shared" si="16"/>
@@ -18536,7 +18536,7 @@
       </c>
       <c r="B354" s="12">
         <f>B353*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6503714.2144064438</v>
+        <v>4230493.5922747385</v>
       </c>
       <c r="C354">
         <f t="shared" si="16"/>
@@ -18557,7 +18557,7 @@
       </c>
       <c r="B355" s="12">
         <f>B354*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6553088.585505425</v>
+        <v>4256913.4181059459</v>
       </c>
       <c r="C355">
         <f t="shared" si="16"/>
@@ -18578,7 +18578,7 @@
       </c>
       <c r="B356" s="12">
         <f>B355*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6602818.8136604475</v>
+        <v>4283482.6254735133</v>
       </c>
       <c r="C356">
         <f t="shared" si="16"/>
@@ -18599,7 +18599,7 @@
       </c>
       <c r="B357" s="12">
         <f>B356*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6652907.4636483686</v>
+        <v>4310202.059002365</v>
       </c>
       <c r="C357">
         <f t="shared" si="16"/>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="B358" s="12">
         <f>B357*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6703357.1187312212</v>
+        <v>4337072.5680930577</v>
       </c>
       <c r="C358">
         <f t="shared" si="16"/>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B359" s="12">
         <f>B358*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6754170.3807894439</v>
+        <v>4364095.0069487831</v>
       </c>
       <c r="C359">
         <f t="shared" si="16"/>
@@ -18662,7 +18662,7 @@
       </c>
       <c r="B360" s="12">
         <f>B359*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6805349.8704560678</v>
+        <v>4391270.2346025212</v>
       </c>
       <c r="C360">
         <f t="shared" si="16"/>
@@ -18683,7 +18683,7 @@
       </c>
       <c r="B361" s="12">
         <f>B360*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6856898.2272518743</v>
+        <v>4418599.114944349</v>
       </c>
       <c r="C361">
         <f t="shared" si="16"/>
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B362" s="12">
         <f>B361*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6908818.1097215228</v>
+        <v>4446082.5167489043</v>
       </c>
       <c r="C362">
         <f t="shared" si="16"/>
@@ -18725,7 +18725,7 @@
       </c>
       <c r="B363" s="12">
         <f>B362*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>6961112.1955706663</v>
+        <v>4473721.3137030033</v>
       </c>
       <c r="C363">
         <f t="shared" si="16"/>
@@ -18746,7 +18746,7 @@
       </c>
       <c r="B364" s="12">
         <f>B363*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7013783.181804046</v>
+        <v>4501516.3844334139</v>
       </c>
       <c r="C364">
         <f t="shared" si="16"/>
@@ -18767,7 +18767,7 @@
       </c>
       <c r="B365" s="12">
         <f>B364*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7066833.7848645896</v>
+        <v>4529468.6125347875</v>
       </c>
       <c r="C365">
         <f t="shared" si="16"/>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="B366" s="12">
         <f>B365*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7120266.7407735065</v>
+        <v>4557578.8865977479</v>
       </c>
       <c r="C366">
         <f t="shared" si="16"/>
@@ -18809,7 +18809,7 @@
       </c>
       <c r="B367" s="12">
         <f>B366*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7174084.8052713964</v>
+        <v>4585848.1002371404</v>
       </c>
       <c r="C367">
         <f t="shared" si="16"/>
@@ -18830,7 +18830,7 @@
       </c>
       <c r="B368" s="12">
         <f>B367*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7228290.753960371</v>
+        <v>4614277.1521204375</v>
       </c>
       <c r="C368">
         <f t="shared" si="16"/>
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B369" s="12">
         <f>B368*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7282887.3824472055</v>
+        <v>4642866.9459963087</v>
       </c>
       <c r="C369">
         <f t="shared" si="16"/>
@@ -18872,7 +18872,7 @@
       </c>
       <c r="B370" s="12">
         <f>B369*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7337877.5064875148</v>
+        <v>4671618.3907233505</v>
       </c>
       <c r="C370">
         <f t="shared" si="16"/>
@@ -18893,7 +18893,7 @@
       </c>
       <c r="B371" s="12">
         <f>B370*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7393263.9621309778</v>
+        <v>4700532.4002989763</v>
       </c>
       <c r="C371">
         <f t="shared" si="16"/>
@@ -18914,7 +18914,7 @@
       </c>
       <c r="B372" s="12">
         <f>B371*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7449049.6058675973</v>
+        <v>4729609.8938884754</v>
       </c>
       <c r="C372">
         <f t="shared" si="16"/>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="B373" s="12">
         <f>B372*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7505237.3147750255</v>
+        <v>4758851.7958542313</v>
       </c>
       <c r="C373">
         <f t="shared" si="16"/>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="B374" s="12">
         <f>B373*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7561829.9866669429</v>
+        <v>4788259.035785106</v>
       </c>
       <c r="C374">
         <f t="shared" si="16"/>
@@ -18977,7 +18977,7 @@
       </c>
       <c r="B375" s="12">
         <f>B374*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7618830.540242509</v>
+        <v>4817832.5485259918</v>
       </c>
       <c r="C375">
         <f t="shared" si="16"/>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="B376" s="12">
         <f>B375*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7676241.9152368931</v>
+        <v>4847573.2742075315</v>
       </c>
       <c r="C376">
         <f t="shared" si="16"/>
@@ -19019,7 +19019,7 @@
       </c>
       <c r="B377" s="12">
         <f>B376*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7734067.072572886</v>
+        <v>4877482.158276001</v>
       </c>
       <c r="C377">
         <f t="shared" si="16"/>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B378" s="12">
         <f>B377*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7792308.9945136057</v>
+        <v>4907560.1515233684</v>
       </c>
       <c r="C378">
         <f t="shared" si="16"/>
@@ -19061,7 +19061,7 @@
       </c>
       <c r="B379" s="12">
         <f>B378*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7850970.6848163055</v>
+        <v>4937808.210117518</v>
       </c>
       <c r="C379">
         <f t="shared" si="16"/>
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B380" s="12">
         <f>B379*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7910055.1688872883</v>
+        <v>4968227.2956326455</v>
       </c>
       <c r="C380">
         <f t="shared" si="16"/>
@@ -19103,7 +19103,7 @@
       </c>
       <c r="B381" s="12">
         <f>B380*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>7969565.4939379375</v>
+        <v>4998818.3750798274</v>
       </c>
       <c r="C381">
         <f t="shared" si="16"/>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="B382" s="12">
         <f>B381*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8029504.7291418752</v>
+        <v>5029582.4209377617</v>
       </c>
       <c r="C382">
         <f t="shared" si="16"/>
@@ -19145,7 +19145,7 @@
       </c>
       <c r="B383" s="12">
         <f>B382*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8089875.9657932492</v>
+        <v>5060520.4111836813</v>
       </c>
       <c r="C383">
         <f t="shared" si="16"/>
@@ -19166,7 +19166,7 @@
       </c>
       <c r="B384" s="12">
         <f>B383*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8150682.3174661649</v>
+        <v>5091633.3293244457</v>
       </c>
       <c r="C384">
         <f t="shared" si="16"/>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="B385" s="12">
         <f>B384*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8211926.9201752618</v>
+        <v>5122922.1644278048</v>
       </c>
       <c r="C385">
         <f t="shared" si="16"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="B386" s="12">
         <f>B385*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8273612.9325374514</v>
+        <v>5154387.9111538408</v>
       </c>
       <c r="C386">
         <f t="shared" si="16"/>
@@ -19229,7 +19229,7 @@
       </c>
       <c r="B387" s="12">
         <f>B386*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8335743.5359348189</v>
+        <v>5186031.5697865887</v>
       </c>
       <c r="C387">
         <f t="shared" si="16"/>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="B388" s="12">
         <f>B387*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8398321.934678698</v>
+        <v>5217854.1462658355</v>
       </c>
       <c r="C388">
         <f t="shared" ref="C388:C451" si="19">C387</f>
@@ -19271,7 +19271,7 @@
       </c>
       <c r="B389" s="12">
         <f>B388*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8461351.3561749309</v>
+        <v>5249856.6522190981</v>
       </c>
       <c r="C389">
         <f t="shared" si="19"/>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="B390" s="12">
         <f>B389*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8524835.051090315</v>
+        <v>5282040.104993782</v>
       </c>
       <c r="C390">
         <f t="shared" si="19"/>
@@ -19313,7 +19313,7 @@
       </c>
       <c r="B391" s="12">
         <f>B390*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8588776.2935202569</v>
+        <v>5314405.5276895221</v>
       </c>
       <c r="C391">
         <f t="shared" si="19"/>
@@ -19334,7 +19334,7 @@
       </c>
       <c r="B392" s="12">
         <f>B391*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8653178.3811576273</v>
+        <v>5346953.9491907088</v>
       </c>
       <c r="C392">
         <f t="shared" si="19"/>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="B393" s="12">
         <f>B392*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8718044.6354628354</v>
+        <v>5379686.4041991942</v>
       </c>
       <c r="C393">
         <f t="shared" si="19"/>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="B394" s="12">
         <f>B393*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8783378.4018351268</v>
+        <v>5412603.9332671836</v>
       </c>
       <c r="C394">
         <f t="shared" si="19"/>
@@ -19397,7 +19397,7 @@
       </c>
       <c r="B395" s="12">
         <f>B394*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8849183.0497851241</v>
+        <v>5445707.5828303182</v>
       </c>
       <c r="C395">
         <f t="shared" si="19"/>
@@ -19418,7 +19418,7 @@
       </c>
       <c r="B396" s="12">
         <f>B395*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8915461.9731086027</v>
+        <v>5478998.4052409362</v>
       </c>
       <c r="C396">
         <f t="shared" si="19"/>
@@ -19439,7 +19439,7 @@
       </c>
       <c r="B397" s="12">
         <f>B396*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>8982218.5900615193</v>
+        <v>5512477.4588015303</v>
       </c>
       <c r="C397">
         <f t="shared" si="19"/>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B398" s="12">
         <f>B397*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9049456.3435363062</v>
+        <v>5546145.8077983884</v>
       </c>
       <c r="C398">
         <f t="shared" si="19"/>
@@ -19481,7 +19481,7 @@
       </c>
       <c r="B399" s="12">
         <f>B398*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9117178.7012394369</v>
+        <v>5580004.5225354284</v>
       </c>
       <c r="C399">
         <f t="shared" si="19"/>
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B400" s="12">
         <f>B399*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9185389.1558702644</v>
+        <v>5614054.6793682231</v>
       </c>
       <c r="C400">
         <f t="shared" si="19"/>
@@ -19523,7 +19523,7 @@
       </c>
       <c r="B401" s="12">
         <f>B400*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9254091.2253011577</v>
+        <v>5648297.3607382141</v>
       </c>
       <c r="C401">
         <f t="shared" si="19"/>
@@ -19544,7 +19544,7 @@
       </c>
       <c r="B402" s="12">
         <f>B401*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9323288.4527589269</v>
+        <v>5682733.6552071255</v>
       </c>
       <c r="C402">
         <f t="shared" si="19"/>
@@ -19565,7 +19565,7 @@
       </c>
       <c r="B403" s="12">
         <f>B402*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9392984.4070075639</v>
+        <v>5717364.6574915675</v>
       </c>
       <c r="C403">
         <f t="shared" si="19"/>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="B404" s="12">
         <f>B403*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9463182.6825322974</v>
+        <v>5752191.468497837</v>
       </c>
       <c r="C404">
         <f t="shared" si="19"/>
@@ -19607,7 +19607,7 @@
       </c>
       <c r="B405" s="12">
         <f>B404*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9533886.8997249734</v>
+        <v>5787215.1953569157</v>
       </c>
       <c r="C405">
         <f t="shared" si="19"/>
@@ -19628,7 +19628,7 @@
       </c>
       <c r="B406" s="12">
         <f>B405*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9605100.7050707713</v>
+        <v>5822436.9514596649</v>
       </c>
       <c r="C406">
         <f t="shared" si="19"/>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="B407" s="12">
         <f>B406*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9676827.7713362686</v>
+        <v>5857857.8564922186</v>
       </c>
       <c r="C407">
         <f t="shared" si="19"/>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="B408" s="12">
         <f>B407*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9749071.7977588605</v>
+        <v>5893479.0364715802</v>
       </c>
       <c r="C408">
         <f t="shared" si="19"/>
@@ -19691,7 +19691,7 @@
       </c>
       <c r="B409" s="12">
         <f>B408*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9821836.5102375392</v>
+        <v>5929301.6237814156</v>
       </c>
       <c r="C409">
         <f t="shared" si="19"/>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B410" s="12">
         <f>B409*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9895125.6615250576</v>
+        <v>5965326.757208054</v>
       </c>
       <c r="C410">
         <f t="shared" si="19"/>
@@ -19733,7 +19733,7 @@
       </c>
       <c r="B411" s="12">
         <f>B410*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>9968943.0314214695</v>
+        <v>6001555.5819766875</v>
       </c>
       <c r="C411">
         <f t="shared" si="19"/>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="B412" s="12">
         <f>B411*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10043292.426969072</v>
+        <v>6037989.2497877777</v>
       </c>
       <c r="C412">
         <f t="shared" si="19"/>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="B413" s="12">
         <f>B412*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10118177.682648744</v>
+        <v>6074628.9188536676</v>
       </c>
       <c r="C413">
         <f t="shared" si="19"/>
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B414" s="12">
         <f>B413*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10193602.660577713</v>
+        <v>6111475.7539354023</v>
       </c>
       <c r="C414">
         <f t="shared" si="19"/>
@@ -19817,7 +19817,7 @@
       </c>
       <c r="B415" s="12">
         <f>B414*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10269571.250708727</v>
+        <v>6148530.9263797551</v>
       </c>
       <c r="C415">
         <f t="shared" si="19"/>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="B416" s="12">
         <f>B415*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10346087.371030688</v>
+        <v>6185795.6141564641</v>
       </c>
       <c r="C416">
         <f t="shared" si="19"/>
@@ -19859,7 +19859,7 @@
       </c>
       <c r="B417" s="12">
         <f>B416*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10423154.967770705</v>
+        <v>6223271.0018956782</v>
       </c>
       <c r="C417">
         <f t="shared" si="19"/>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="B418" s="12">
         <f>B417*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10500778.015597625</v>
+        <v>6260958.2809256194</v>
       </c>
       <c r="C418">
         <f t="shared" si="19"/>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="B419" s="12">
         <f>B418*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10578960.517827017</v>
+        <v>6298858.6493104519</v>
       </c>
       <c r="C419">
         <f t="shared" si="19"/>
@@ -19922,7 +19922,7 @@
       </c>
       <c r="B420" s="12">
         <f>B419*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10657706.506627642</v>
+        <v>6336973.3118883688</v>
       </c>
       <c r="C420">
         <f t="shared" si="19"/>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="B421" s="12">
         <f>B420*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10737020.043229401</v>
+        <v>6375303.4803098924</v>
       </c>
       <c r="C421">
         <f t="shared" si="19"/>
@@ -19964,7 +19964,7 @@
       </c>
       <c r="B422" s="12">
         <f>B421*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10816905.218132796</v>
+        <v>6413850.3730763951</v>
       </c>
       <c r="C422">
         <f t="shared" si="19"/>
@@ -19985,7 +19985,7 @@
       </c>
       <c r="B423" s="12">
         <f>B422*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10897366.151319886</v>
+        <v>6452615.2155788327</v>
       </c>
       <c r="C423">
         <f t="shared" si="19"/>
@@ -20006,7 +20006,7 @@
       </c>
       <c r="B424" s="12">
         <f>B423*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>10978406.992466772</v>
+        <v>6491599.2401366988</v>
       </c>
       <c r="C424">
         <f t="shared" si="19"/>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="B425" s="12">
         <f>B424*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11060031.921157615</v>
+        <v>6530803.6860372014</v>
       </c>
       <c r="C425">
         <f t="shared" si="19"/>
@@ -20048,7 +20048,7 @@
       </c>
       <c r="B426" s="12">
         <f>B425*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11142245.147100192</v>
+        <v>6570229.7995746583</v>
       </c>
       <c r="C426">
         <f t="shared" si="19"/>
@@ -20069,7 +20069,7 @@
       </c>
       <c r="B427" s="12">
         <f>B426*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11225050.910342999</v>
+        <v>6609878.8340901164</v>
       </c>
       <c r="C427">
         <f t="shared" si="19"/>
@@ -20090,7 +20090,7 @@
       </c>
       <c r="B428" s="12">
         <f>B427*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11308453.481493935</v>
+        <v>6649752.0500111952</v>
       </c>
       <c r="C428">
         <f t="shared" si="19"/>
@@ -20111,7 +20111,7 @@
       </c>
       <c r="B429" s="12">
         <f>B428*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11392457.161940554</v>
+        <v>6689850.7148921546</v>
       </c>
       <c r="C429">
         <f t="shared" si="19"/>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="B430" s="12">
         <f>B429*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11477066.284071896</v>
+        <v>6730176.1034541922</v>
       </c>
       <c r="C430">
         <f t="shared" si="19"/>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="B431" s="12">
         <f>B430*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11562285.211501934</v>
+        <v>6770729.4976259628</v>
       </c>
       <c r="C431">
         <f t="shared" si="19"/>
@@ -20174,7 +20174,7 @@
       </c>
       <c r="B432" s="12">
         <f>B431*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11648118.339294614</v>
+        <v>6811512.1865843339</v>
       </c>
       <c r="C432">
         <f t="shared" si="19"/>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="B433" s="12">
         <f>B432*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11734570.094190532</v>
+        <v>6852525.4667953644</v>
       </c>
       <c r="C433">
         <f t="shared" si="19"/>
@@ -20216,7 +20216,7 @@
       </c>
       <c r="B434" s="12">
         <f>B433*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11821644.934835233</v>
+        <v>6893770.6420555227</v>
       </c>
       <c r="C434">
         <f t="shared" si="19"/>
@@ -20237,7 +20237,7 @@
       </c>
       <c r="B435" s="12">
         <f>B434*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11909347.35200916</v>
+        <v>6935249.023533131</v>
       </c>
       <c r="C435">
         <f t="shared" si="19"/>
@@ -20258,7 +20258,7 @@
       </c>
       <c r="B436" s="12">
         <f>B435*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>11997681.868859267</v>
+        <v>6976961.9298100481</v>
       </c>
       <c r="C436">
         <f t="shared" si="19"/>
@@ -20279,7 +20279,7 @@
       </c>
       <c r="B437" s="12">
         <f>B436*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12086653.041132286</v>
+        <v>7018910.6869235858</v>
       </c>
       <c r="C437">
         <f t="shared" si="19"/>
@@ -20300,7 +20300,7 @@
       </c>
       <c r="B438" s="12">
         <f>B437*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12176265.457409693</v>
+        <v>7061096.6284086648</v>
       </c>
       <c r="C438">
         <f t="shared" si="19"/>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="B439" s="12">
         <f>B438*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12266523.739344351</v>
+        <v>7103521.0953402044</v>
       </c>
       <c r="C439">
         <f t="shared" si="19"/>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="B440" s="12">
         <f>B439*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12357432.541898873</v>
+        <v>7146185.4363757586</v>
       </c>
       <c r="C440">
         <f t="shared" si="19"/>
@@ -20363,7 +20363,7 @@
       </c>
       <c r="B441" s="12">
         <f>B440*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12448996.553585688</v>
+        <v>7189091.0077983858</v>
       </c>
       <c r="C441">
         <f t="shared" si="19"/>
@@ -20384,7 +20384,7 @@
       </c>
       <c r="B442" s="12">
         <f>B441*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12541220.496708851</v>
+        <v>7232239.1735597653</v>
       </c>
       <c r="C442">
         <f t="shared" si="19"/>
@@ -20405,7 +20405,7 @@
       </c>
       <c r="B443" s="12">
         <f>B442*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12634109.127607593</v>
+        <v>7275631.3053235598</v>
       </c>
       <c r="C443">
         <f t="shared" si="19"/>
@@ -20426,7 +20426,7 @@
       </c>
       <c r="B444" s="12">
         <f>B443*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12727667.236901615</v>
+        <v>7319268.7825090168</v>
       </c>
       <c r="C444">
         <f t="shared" si="19"/>
@@ -20447,7 +20447,7 @@
       </c>
       <c r="B445" s="12">
         <f>B444*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12821899.649738165</v>
+        <v>7363152.9923348194</v>
       </c>
       <c r="C445">
         <f t="shared" si="19"/>
@@ -20468,7 +20468,7 @@
       </c>
       <c r="B446" s="12">
         <f>B445*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>12916811.226040889</v>
+        <v>7407285.3298631888</v>
       </c>
       <c r="C446">
         <f t="shared" si="19"/>
@@ -20489,7 +20489,7 @@
       </c>
       <c r="B447" s="12">
         <f>B446*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13012406.860760469</v>
+        <v>7451667.1980442293</v>
       </c>
       <c r="C447">
         <f t="shared" si="19"/>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B448" s="12">
         <f>B447*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13108691.484127086</v>
+        <v>7496300.0077605303</v>
       </c>
       <c r="C448">
         <f t="shared" si="19"/>
@@ -20531,7 +20531,7 @@
       </c>
       <c r="B449" s="12">
         <f>B448*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13205670.061904678</v>
+        <v>7541185.1778720161</v>
       </c>
       <c r="C449">
         <f t="shared" si="19"/>
@@ -20552,7 +20552,7 @@
       </c>
       <c r="B450" s="12">
         <f>B449*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13303347.595647052</v>
+        <v>7586324.1352610504</v>
       </c>
       <c r="C450">
         <f t="shared" si="19"/>
@@ -20573,7 +20573,7 @@
       </c>
       <c r="B451" s="12">
         <f>B450*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13401729.122955831</v>
+        <v>7631718.3148777978</v>
       </c>
       <c r="C451">
         <f t="shared" si="19"/>
@@ -20594,7 +20594,7 @@
       </c>
       <c r="B452" s="12">
         <f>B451*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13500819.717740258</v>
+        <v>7677369.1597858407</v>
       </c>
       <c r="C452">
         <f t="shared" ref="C452:C482" si="22">C451</f>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="B453" s="12">
         <f>B452*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13600624.490478886</v>
+        <v>7723278.1212080512</v>
       </c>
       <c r="C453">
         <f t="shared" si="22"/>
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B454" s="12">
         <f>B453*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13701148.588483134</v>
+        <v>7769446.6585727278</v>
       </c>
       <c r="C454">
         <f t="shared" si="22"/>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="B455" s="12">
         <f>B454*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13802397.196162762</v>
+        <v>7815876.2395599885</v>
       </c>
       <c r="C455">
         <f t="shared" si="22"/>
@@ -20678,7 +20678,7 @@
       </c>
       <c r="B456" s="12">
         <f>B455*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>13904375.535293246</v>
+        <v>7862568.3401484275</v>
       </c>
       <c r="C456">
         <f t="shared" si="22"/>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="B457" s="12">
         <f>B456*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14007088.865285086</v>
+        <v>7909524.4446620364</v>
       </c>
       <c r="C457">
         <f t="shared" si="22"/>
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B458" s="12">
         <f>B457*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14110542.483455054</v>
+        <v>7956746.0458173919</v>
       </c>
       <c r="C458">
         <f t="shared" si="22"/>
@@ -20741,7 +20741,7 @@
       </c>
       <c r="B459" s="12">
         <f>B458*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14214741.725299397</v>
+        <v>8004234.6447711056</v>
       </c>
       <c r="C459">
         <f t="shared" si="22"/>
@@ -20762,7 +20762,7 @@
       </c>
       <c r="B460" s="12">
         <f>B459*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14319691.96476901</v>
+        <v>8051991.7511675479</v>
       </c>
       <c r="C460">
         <f t="shared" si="22"/>
@@ -20783,7 +20783,7 @@
       </c>
       <c r="B461" s="12">
         <f>B460*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14425398.614546584</v>
+        <v>8100018.8831868377</v>
       </c>
       <c r="C461">
         <f t="shared" si="22"/>
@@ -20804,7 +20804,7 @@
       </c>
       <c r="B462" s="12">
         <f>B461*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14531867.126325771</v>
+        <v>8148317.5675931042</v>
       </c>
       <c r="C462">
         <f t="shared" si="22"/>
@@ -20825,7 +20825,7 @@
       </c>
       <c r="B463" s="12">
         <f>B462*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14639102.991092339</v>
+        <v>8196889.339783024</v>
       </c>
       <c r="C463">
         <f t="shared" si="22"/>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="B464" s="12">
         <f>B463*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14747111.739407366</v>
+        <v>8245735.7438346297</v>
       </c>
       <c r="C464">
         <f t="shared" si="22"/>
@@ -20867,7 +20867,7 @@
       </c>
       <c r="B465" s="12">
         <f>B464*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14855898.94169247</v>
+        <v>8294858.3325563949</v>
       </c>
       <c r="C465">
         <f t="shared" si="22"/>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="B466" s="12">
         <f>B465*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>14965470.208517101</v>
+        <v>8344258.6675365986</v>
       </c>
       <c r="C466">
         <f t="shared" si="22"/>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="B467" s="12">
         <f>B466*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15075831.190887894</v>
+        <v>8393938.3191929664</v>
       </c>
       <c r="C467">
         <f t="shared" si="22"/>
@@ -20930,7 +20930,7 @@
       </c>
       <c r="B468" s="12">
         <f>B467*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15186987.580540122</v>
+        <v>8443898.8668225966</v>
       </c>
       <c r="C468">
         <f t="shared" si="22"/>
@@ -20951,7 +20951,7 @@
       </c>
       <c r="B469" s="12">
         <f>B468*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15298945.110231228</v>
+        <v>8494141.8986521587</v>
       </c>
       <c r="C469">
         <f t="shared" si="22"/>
@@ -20972,7 +20972,7 @@
       </c>
       <c r="B470" s="12">
         <f>B469*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15411709.554036494</v>
+        <v>8544669.0118883885</v>
       </c>
       <c r="C470">
         <f t="shared" si="22"/>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="B471" s="12">
         <f>B470*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15525286.727646828</v>
+        <v>8595481.8127688617</v>
       </c>
       <c r="C471">
         <f t="shared" si="22"/>
@@ -21014,7 +21014,7 @@
       </c>
       <c r="B472" s="12">
         <f>B471*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15639682.488668704</v>
+        <v>8646581.9166130554</v>
       </c>
       <c r="C472">
         <f t="shared" si="22"/>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="B473" s="12">
         <f>B472*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15754902.736926261</v>
+        <v>8697970.9478736948</v>
       </c>
       <c r="C473">
         <f t="shared" si="22"/>
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B474" s="12">
         <f>B473*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15870953.414765576</v>
+        <v>8749650.5401884001</v>
       </c>
       <c r="C474">
         <f t="shared" si="22"/>
@@ -21077,7 +21077,7 @@
       </c>
       <c r="B475" s="12">
         <f>B474*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>15987840.507361136</v>
+        <v>8801622.3364316151</v>
       </c>
       <c r="C475">
         <f t="shared" si="22"/>
@@ -21098,7 +21098,7 @@
       </c>
       <c r="B476" s="12">
         <f>B475*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>16105570.043024516</v>
+        <v>8853887.9887668323</v>
       </c>
       <c r="C476">
         <f t="shared" si="22"/>
@@ -21119,7 +21119,7 @@
       </c>
       <c r="B477" s="12">
         <f>B476*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>16224148.093515279</v>
+        <v>8906449.1586991213</v>
       </c>
       <c r="C477">
         <f t="shared" si="22"/>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="B478" s="12">
         <f>B477*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>16343580.774354126</v>
+        <v>8959307.5171279404</v>
       </c>
       <c r="C478">
         <f t="shared" si="22"/>
@@ -21161,7 +21161,7 @@
       </c>
       <c r="B479" s="12">
         <f>B478*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>16463874.245138293</v>
+        <v>9012464.7444002554</v>
       </c>
       <c r="C479">
         <f t="shared" si="22"/>
@@ -21182,7 +21182,7 @@
       </c>
       <c r="B480" s="12">
         <f>B479*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>16585034.70985922</v>
+        <v>9065922.5303639583</v>
       </c>
       <c r="C480">
         <f t="shared" si="22"/>
@@ -21203,7 +21203,7 @@
       </c>
       <c r="B481" s="12">
         <f>B480*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>16707068.417222526</v>
+        <v>9119682.5744215883</v>
       </c>
       <c r="C481">
         <f t="shared" si="22"/>
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B482" s="12">
         <f>B481*(1+$G$1)+'FIRE Calculator'!$C$3</f>
-        <v>16829981.660970267</v>
+        <v>9173746.5855843537</v>
       </c>
       <c r="C482">
         <f t="shared" si="22"/>
@@ -21240,7 +21240,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3LAgMbtzYqrnRj3qdjgJJh+l9I0Gx/36a1M77k8Uz1RbdI43WefMra/i/cY1iwn8LhLj7U3AMc2Bma8FbKx3eQ==" saltValue="XksL1gCYpSWY5r9s+ggs9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>